--- a/Excel/Conversation.xlsx
+++ b/Excel/Conversation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a7105\UnityProject\Touhou-Tactics\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D93FF35-85FF-4917-88B9-72F65BC911BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42ECB90B-2E07-4262-89EF-250C91746148}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B1AB640F-A1F2-49CE-8B25-110BA12FE61F}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="18">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -81,6 +82,30 @@
   </si>
   <si>
     <t>總之先想辦法找到靈夢吧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[教學]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基本操作\nW/上：向前移動 S/下：向下移動\nA/左：向左旋轉 D/右：向右旋轉\nQ：向左平移 E：向右平移</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>感覺不對勁，是敵人嗎？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地圖中黃色的球體代表敵人，碰到它就會進入戰鬥</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -445,10 +470,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5538BEBD-1C7B-49F9-8C79-B1C3B6A7E6C1}">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -457,7 +482,7 @@
     <col min="4" max="4" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -482,8 +507,11 @@
       <c r="H1" t="s">
         <v>6</v>
       </c>
+      <c r="I1" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -496,8 +524,23 @@
       <c r="D2" t="s">
         <v>9</v>
       </c>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -510,8 +553,23 @@
       <c r="D3" t="s">
         <v>10</v>
       </c>
+      <c r="E3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1</v>
       </c>
@@ -523,6 +581,108 @@
       </c>
       <c r="D4" t="s">
         <v>11</v>
+      </c>
+      <c r="E4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>2</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/Conversation.xlsx
+++ b/Excel/Conversation.xlsx
@@ -5,18 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a7105\UnityProject\Touhou-Tactics\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\a710594\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42ECB90B-2E07-4262-89EF-250C91746148}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61C48816-09C4-4521-8D71-696A74AA03B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B1AB640F-A1F2-49CE-8B25-110BA12FE61F}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{B1AB640F-A1F2-49CE-8B25-110BA12FE61F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="30">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -106,6 +105,54 @@
   </si>
   <si>
     <t>地圖中黃色的球體代表敵人，碰到它就會進入戰鬥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前面又有敵人了啊…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>博麗靈夢</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>妖夢，妳在這裡啊？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>靈夢！我剛才不知為何就突然和大家走散了。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>話說妳那邊調查有什麼成果嗎？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>似乎是受到了異變的影響，我們的符卡使用受到了限制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>聽妳那麼一說，我剛才戰鬥的時候確實沒辦法使用符卡…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>現在想要發動符卡要有這個東西才行。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>這是什麼？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>空白符卡。在戰鬥中確認使用的方法吧。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>空白符卡平常可以在探索中獲得。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -158,7 +205,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -174,7 +221,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -470,13 +517,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5538BEBD-1C7B-49F9-8C79-B1C3B6A7E6C1}">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="12" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
@@ -685,6 +732,296 @@
         <v>12</v>
       </c>
     </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>3</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>3</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>3</v>
+      </c>
+      <c r="B10">
+        <v>4</v>
+      </c>
+      <c r="C10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10" t="s">
+        <v>29</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>3</v>
+      </c>
+      <c r="B11">
+        <v>5</v>
+      </c>
+      <c r="C11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11" t="s">
+        <v>29</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>3</v>
+      </c>
+      <c r="B12">
+        <v>6</v>
+      </c>
+      <c r="C12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" t="s">
+        <v>29</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12" t="s">
+        <v>19</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>3</v>
+      </c>
+      <c r="B13">
+        <v>7</v>
+      </c>
+      <c r="C13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13" t="s">
+        <v>29</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>3</v>
+      </c>
+      <c r="B14">
+        <v>8</v>
+      </c>
+      <c r="C14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" t="s">
+        <v>29</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14" t="s">
+        <v>19</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>3</v>
+      </c>
+      <c r="B15">
+        <v>9</v>
+      </c>
+      <c r="C15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15" t="s">
+        <v>7</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15" t="s">
+        <v>29</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>3</v>
+      </c>
+      <c r="B16">
+        <v>10</v>
+      </c>
+      <c r="C16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" t="s">
+        <v>27</v>
+      </c>
+      <c r="E16" t="s">
+        <v>29</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16" t="s">
+        <v>19</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>3</v>
+      </c>
+      <c r="B17">
+        <v>11</v>
+      </c>
+      <c r="C17" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" t="s">
+        <v>28</v>
+      </c>
+      <c r="E17" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17" t="s">
+        <v>12</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/Conversation.xlsx
+++ b/Excel/Conversation.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\a710594\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a7105\UnityProject\Touhou-Tactics\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61C48816-09C4-4521-8D71-696A74AA03B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D21DA34A-B62D-487D-869A-8B378E02A2F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{B1AB640F-A1F2-49CE-8B25-110BA12FE61F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B1AB640F-A1F2-49CE-8B25-110BA12FE61F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="40">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -154,6 +154,45 @@
   <si>
     <t>-</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>將角色從下方拖曳至場景的白色區域中。\n白色的區域代表可放置角色的位置。\n將角色配置完後按開始戰鬥。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地圖上白色的區域代表可移動的範圍。\n請點選箭頭指示的位置。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pause</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下一頁隱藏,直到程式主動呼叫才顯示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>現在地圖上白色的範圍是可以放技能的地方。\n請點選箭頭指示的位置。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回合結束後需要選擇角色面對的方向。\n角色面對的方向會影響命中率。\n比方說如果攻擊敵人的正面，命中率會比較低。\n反之從背後偷襲，命中率就會變高。\n盡量面向敵人，避免被偷襲吧。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>試著使用支援吧\n支援可以強化自身，不消耗行動次數，一個回合只能使用一次。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>妖夢的攻擊力提升了！\n接著攻擊敵人吧！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tutorial_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消耗符卡發動強大的效果。使用符卡後所有的我方成員都會進入冷卻時間，需要數回合後才能再次使用符卡。</t>
   </si>
 </sst>
 </file>
@@ -205,7 +244,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="一般" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -221,7 +260,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -517,508 +556,788 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5538BEBD-1C7B-49F9-8C79-B1C3B6A7E6C1}">
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+      <selection activeCell="J25" sqref="A2:J25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="12" customWidth="1"/>
-    <col min="4" max="4" width="15" customWidth="1"/>
+    <col min="4" max="4" width="12" customWidth="1"/>
+    <col min="5" max="5" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
         <v>8</v>
       </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="C2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G2" t="s">
         <v>3</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H2" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I2" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" t="s">
         <v>9</v>
       </c>
-      <c r="E2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3">
+      <c r="F3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
         <v>2</v>
       </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" t="s">
         <v>10</v>
       </c>
-      <c r="E3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4">
+      <c r="F4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
         <v>3</v>
       </c>
-      <c r="C4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" t="s">
         <v>11</v>
       </c>
-      <c r="E4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>1</v>
-      </c>
-      <c r="B5">
+      <c r="F5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6">
         <v>4</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6" t="s">
         <v>13</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E6" t="s">
         <v>15</v>
       </c>
-      <c r="E5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>2</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6" t="s">
-        <v>12</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2</v>
       </c>
       <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8">
         <v>2</v>
       </c>
-      <c r="C7" t="s">
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8" t="s">
         <v>13</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E8" t="s">
         <v>17</v>
       </c>
-      <c r="E7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>3</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8" t="s">
-        <v>12</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8" t="s">
+        <v>12</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>3</v>
       </c>
       <c r="B9">
-        <v>2</v>
-      </c>
-      <c r="C9" t="s">
-        <v>19</v>
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="E9" t="s">
-        <v>29</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9" t="s">
-        <v>19</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+      <c r="F9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9" t="s">
+        <v>12</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>3</v>
       </c>
       <c r="B10">
-        <v>4</v>
-      </c>
-      <c r="C10" t="s">
-        <v>7</v>
+        <v>2</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="E10" t="s">
-        <v>7</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10" t="s">
-        <v>29</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="F10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10" t="s">
+        <v>12</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>3</v>
       </c>
       <c r="B11">
-        <v>5</v>
-      </c>
-      <c r="C11" t="s">
-        <v>7</v>
+        <v>3</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="E11" t="s">
-        <v>7</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="G11" t="s">
-        <v>29</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+      <c r="F11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11" t="s">
+        <v>12</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>3</v>
       </c>
       <c r="B12">
-        <v>6</v>
-      </c>
-      <c r="C12" t="s">
-        <v>19</v>
+        <v>4</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="E12" t="s">
-        <v>29</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-      <c r="G12" t="s">
-        <v>19</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+      <c r="F12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12" t="s">
+        <v>12</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>3</v>
       </c>
       <c r="B13">
-        <v>7</v>
-      </c>
-      <c r="C13" t="s">
-        <v>7</v>
+        <v>5</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="E13" t="s">
-        <v>7</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-      <c r="G13" t="s">
-        <v>29</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+      <c r="F13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13" t="s">
+        <v>12</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>3</v>
       </c>
       <c r="B14">
+        <v>6</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>37</v>
+      </c>
+      <c r="F14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14" t="s">
+        <v>12</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>4</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" t="s">
+        <v>18</v>
+      </c>
+      <c r="F15" t="s">
+        <v>7</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15" t="s">
+        <v>12</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>4</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16" t="s">
+        <v>20</v>
+      </c>
+      <c r="F16" t="s">
+        <v>29</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16" t="s">
+        <v>19</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>4</v>
+      </c>
+      <c r="B17">
+        <v>3</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" t="s">
+        <v>21</v>
+      </c>
+      <c r="F17" t="s">
+        <v>7</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17" t="s">
+        <v>29</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>4</v>
+      </c>
+      <c r="B18">
+        <v>4</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" t="s">
+        <v>22</v>
+      </c>
+      <c r="F18" t="s">
+        <v>7</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18" t="s">
+        <v>29</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>4</v>
+      </c>
+      <c r="B19">
+        <v>5</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19" t="s">
+        <v>19</v>
+      </c>
+      <c r="E19" t="s">
+        <v>23</v>
+      </c>
+      <c r="F19" t="s">
+        <v>29</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19" t="s">
+        <v>19</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>4</v>
+      </c>
+      <c r="B20">
+        <v>6</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20" t="s">
+        <v>24</v>
+      </c>
+      <c r="F20" t="s">
+        <v>7</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20" t="s">
+        <v>29</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>4</v>
+      </c>
+      <c r="B21">
+        <v>7</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21" t="s">
+        <v>19</v>
+      </c>
+      <c r="E21" t="s">
+        <v>25</v>
+      </c>
+      <c r="F21" t="s">
+        <v>29</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21" t="s">
+        <v>19</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>4</v>
+      </c>
+      <c r="B22">
         <v>8</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22" t="s">
+        <v>26</v>
+      </c>
+      <c r="F22" t="s">
+        <v>7</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22" t="s">
+        <v>29</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>4</v>
+      </c>
+      <c r="B23">
+        <v>9</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23" t="s">
         <v>19</v>
       </c>
-      <c r="D14" t="s">
-        <v>25</v>
-      </c>
-      <c r="E14" t="s">
+      <c r="E23" t="s">
+        <v>27</v>
+      </c>
+      <c r="F23" t="s">
         <v>29</v>
       </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-      <c r="G14" t="s">
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23" t="s">
         <v>19</v>
       </c>
-      <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>3</v>
-      </c>
-      <c r="B15">
-        <v>9</v>
-      </c>
-      <c r="C15" t="s">
-        <v>7</v>
-      </c>
-      <c r="D15" t="s">
-        <v>26</v>
-      </c>
-      <c r="E15" t="s">
-        <v>7</v>
-      </c>
-      <c r="F15">
-        <v>0</v>
-      </c>
-      <c r="G15" t="s">
-        <v>29</v>
-      </c>
-      <c r="H15">
-        <v>0</v>
-      </c>
-      <c r="I15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>3</v>
-      </c>
-      <c r="B16">
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>4</v>
+      </c>
+      <c r="B24">
         <v>10</v>
       </c>
-      <c r="C16" t="s">
-        <v>19</v>
-      </c>
-      <c r="D16" t="s">
-        <v>27</v>
-      </c>
-      <c r="E16" t="s">
-        <v>29</v>
-      </c>
-      <c r="F16">
-        <v>0</v>
-      </c>
-      <c r="G16" t="s">
-        <v>19</v>
-      </c>
-      <c r="H16">
-        <v>0</v>
-      </c>
-      <c r="I16" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>3</v>
-      </c>
-      <c r="B17">
-        <v>11</v>
-      </c>
-      <c r="C17" t="s">
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24" t="s">
         <v>13</v>
       </c>
-      <c r="D17" t="s">
+      <c r="E24" t="s">
         <v>28</v>
       </c>
-      <c r="E17" t="s">
-        <v>12</v>
-      </c>
-      <c r="F17">
-        <v>0</v>
-      </c>
-      <c r="G17" t="s">
-        <v>12</v>
-      </c>
-      <c r="H17">
-        <v>0</v>
-      </c>
-      <c r="I17" t="s">
+      <c r="F24" t="s">
+        <v>12</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24" t="s">
+        <v>12</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>5</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25" t="s">
+        <v>13</v>
+      </c>
+      <c r="E25" t="s">
+        <v>39</v>
+      </c>
+      <c r="F25" t="s">
+        <v>12</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25" t="s">
+        <v>12</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25" t="s">
         <v>12</v>
       </c>
     </row>

--- a/Excel/Conversation.xlsx
+++ b/Excel/Conversation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a7105\UnityProject\Touhou-Tactics\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D21DA34A-B62D-487D-869A-8B378E02A2F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A57590A2-3C89-4ACF-B11E-E1AC85771703}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B1AB640F-A1F2-49CE-8B25-110BA12FE61F}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="44">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -193,6 +193,22 @@
   </si>
   <si>
     <t>消耗符卡發動強大的效果。使用符卡後所有的我方成員都會進入冷卻時間，需要數回合後才能再次使用符卡。</t>
+  </si>
+  <si>
+    <t>前面好像是出口？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打倒礙事的傢伙前進吧！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>發出紅光的地方有該區域的守衛，打倒他就前往下一個區域</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>博麗靈夢加入了隊伍！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -556,10 +572,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5538BEBD-1C7B-49F9-8C79-B1C3B6A7E6C1}">
-  <dimension ref="A1:J25"/>
+  <dimension ref="A1:J29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J25" sqref="A2:J25"/>
+      <selection activeCell="J29" sqref="A2:J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -1341,6 +1357,131 @@
         <v>12</v>
       </c>
     </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>6</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26" t="s">
+        <v>7</v>
+      </c>
+      <c r="E26" t="s">
+        <v>40</v>
+      </c>
+      <c r="F26" t="s">
+        <v>7</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26" t="s">
+        <v>12</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>6</v>
+      </c>
+      <c r="B27">
+        <v>2</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27" t="s">
+        <v>19</v>
+      </c>
+      <c r="E27" t="s">
+        <v>41</v>
+      </c>
+      <c r="F27" t="s">
+        <v>29</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27" t="s">
+        <v>19</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>6</v>
+      </c>
+      <c r="B28">
+        <v>3</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28" t="s">
+        <v>13</v>
+      </c>
+      <c r="E28" t="s">
+        <v>42</v>
+      </c>
+      <c r="F28" t="s">
+        <v>29</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28" t="s">
+        <v>29</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>6</v>
+      </c>
+      <c r="B29">
+        <v>4</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="E29" t="s">
+        <v>43</v>
+      </c>
+      <c r="F29" t="s">
+        <v>29</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29" t="s">
+        <v>29</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/Conversation.xlsx
+++ b/Excel/Conversation.xlsx
@@ -1,235 +1,208 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a7105\UnityProject\Touhou-Tactics\Excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A57590A2-3C89-4ACF-B11E-E1AC85771703}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B1AB640F-A1F2-49CE-8B25-110BA12FE61F}"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="14940" windowHeight="9225" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="54">
   <si>
     <t>ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Page</t>
+  </si>
+  <si>
+    <t>Pause</t>
   </si>
   <si>
     <t>Name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Dialog</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image_1</t>
   </si>
   <si>
     <t>Motion_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Image_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Image_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Motion_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image_3</t>
   </si>
   <si>
     <t>魂魄妖夢</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Page</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>這裡是哪裡？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x</t>
   </si>
   <si>
     <t>靈夢跟我說發生異變了，要我來幫忙。話說回來，靈夢人呢？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>總之先想辦法找到靈夢吧</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>x</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>[教學]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Image_3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>基本操作\nW/上：向前移動 S/下：向下移動\nA/左：向左旋轉 D/右：向右旋轉\nQ：向左平移 E：向右平移</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基本操作
+W/上：向前移動 S/下：向下移動
+A/左：向左旋轉 D/右：向右旋轉
+Q：向左平移 E：向右平移</t>
   </si>
   <si>
     <t>感覺不對勁，是敵人嗎？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>地圖中黃色的球體代表敵人，碰到它就會進入戰鬥</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>將角色從下方拖曳至場景的白色區域中。
+白色的區域代表可放置角色的位置。
+將角色配置完後按開始戰鬥。</t>
+  </si>
+  <si>
+    <t>Tutorial_1</t>
+  </si>
+  <si>
+    <t>地圖上白色的區域代表可移動的範圍。
+請點選箭頭指示的位置。</t>
+  </si>
+  <si>
+    <t>現在地圖上白色的範圍是可以放技能的地方。
+請點選箭頭指示的位置。</t>
+  </si>
+  <si>
+    <t>回合結束後需要選擇角色面對的方向。
+角色面對的方向會影響命中率。
+比方說如果攻擊敵人的正面，命中率會比較低。
+反之從背後偷襲，命中率就會變高。
+盡量面向敵人，避免被偷襲吧。</t>
+  </si>
+  <si>
+    <t>試著使用支援吧
+支援可以強化自身，不消耗行動次數，一個回合只能使用一次。</t>
+  </si>
+  <si>
+    <t>妖夢的攻擊力提升了！
+接著攻擊敵人吧！</t>
   </si>
   <si>
     <t>前面又有敵人了啊…</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>博麗靈夢</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>妖夢，妳在這裡啊？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
   </si>
   <si>
     <t>靈夢！我剛才不知為何就突然和大家走散了。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>話說妳那邊調查有什麼成果嗎？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>似乎是受到了異變的影響，我們的符卡使用受到了限制</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>聽妳那麼一說，我剛才戰鬥的時候確實沒辦法使用符卡…</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>現在想要發動符卡要有這個東西才行。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>這是什麼？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>空白符卡。在戰鬥中確認使用的方法吧。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>空白符卡平常可以在探索中獲得。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>將角色從下方拖曳至場景的白色區域中。\n白色的區域代表可放置角色的位置。\n將角色配置完後按開始戰鬥。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>地圖上白色的區域代表可移動的範圍。\n請點選箭頭指示的位置。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pause</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>下一頁隱藏,直到程式主動呼叫才顯示</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>現在地圖上白色的範圍是可以放技能的地方。\n請點選箭頭指示的位置。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>回合結束後需要選擇角色面對的方向。\n角色面對的方向會影響命中率。\n比方說如果攻擊敵人的正面，命中率會比較低。\n反之從背後偷襲，命中率就會變高。\n盡量面向敵人，避免被偷襲吧。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>試著使用支援吧\n支援可以強化自身，不消耗行動次數，一個回合只能使用一次。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>妖夢的攻擊力提升了！\n接著攻擊敵人吧！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tutorial_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[系統]</t>
+  </si>
+  <si>
+    <t>獲得了空白符卡</t>
   </si>
   <si>
     <t>消耗符卡發動強大的效果。使用符卡後所有的我方成員都會進入冷卻時間，需要數回合後才能再次使用符卡。</t>
   </si>
   <si>
     <t>前面好像是出口？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>打倒礙事的傢伙前進吧！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>發出紅光的地方有該區域的守衛，打倒他就前往下一個區域</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>博麗靈夢加入了隊伍！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>靈夢的防禦力強大，支援能提升範圍內同伴的防禦力，擅長守護隊友。</t>
+  </si>
+  <si>
+    <t>旁邊的灰色區塊代表受到支援影響的區域，站在該區域的友方也能得到防禦力上升的效果。</t>
+  </si>
+  <si>
+    <t>這裡是？</t>
+  </si>
+  <si>
+    <t>我也不清楚。不過看起來是個適合休息的地方。</t>
+  </si>
+  <si>
+    <t>霧雨魔理沙</t>
+  </si>
+  <si>
+    <t>靈夢！你在這裡啊？我還以為你已經回去睡了呢！</t>
+  </si>
+  <si>
+    <t>你在胡說些什麼啊魔理沙？我沒有偷懶到那種地步吧？</t>
+  </si>
+  <si>
+    <t>總之先休息一下，等一下一起出發吧。</t>
+  </si>
+  <si>
+    <t>結束一個區域的探索後，會先來到休息處，全部的角色的狀態都會回復。
+想繼續探索時按右上的「出發」就可以了</t>
+  </si>
+  <si>
+    <t>霧雨魔理沙加入了隊伍</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
-      <sz val="11"/>
+      <sz val="10"/>
       <color theme="1"/>
-      <name val="新細明體"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <charset val="136"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="新細明體"/>
-      <family val="2"/>
-      <charset val="136"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -249,21 +222,110 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
+      <alignment/>
+      <protection/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="15" builtinId="5"/>
+    <cellStyle name="Currency" xfId="16" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="17" builtinId="7"/>
+    <cellStyle name="Comma" xfId="18" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="19" builtinId="6"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -571,74 +633,107 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5538BEBD-1C7B-49F9-8C79-B1C3B6A7E6C1}">
-  <dimension ref="A1:J29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7e5e2c20-1cab-4a73-a88d-c37ef4dc0871}">
+  <dimension ref="A1:J37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J29" sqref="A2:J29"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="4" max="4" width="12" customWidth="1"/>
-    <col min="5" max="5" width="15" customWidth="1"/>
+    <col min="1" max="1" width="3" customWidth="1"/>
+    <col min="2" max="2" width="5.57142857142857" customWidth="1"/>
+    <col min="3" max="3" width="6.57142857142857" customWidth="1"/>
+    <col min="4" max="4" width="10.5714285714286" customWidth="1"/>
+    <col min="5" max="5" width="161" customWidth="1"/>
+    <col min="6" max="6" width="10.5714285714286" customWidth="1"/>
+    <col min="7" max="7" width="8.85714285714286" customWidth="1"/>
+    <col min="8" max="8" width="8.71428571428571" customWidth="1"/>
+    <col min="9" max="9" width="8.85714285714286" customWidth="1"/>
+    <col min="10" max="10" width="9.28571428571429" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="12.75">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
       <c r="C1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="C2" t="s">
-        <v>32</v>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="12.75">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" t="s">
-        <v>3</v>
+        <v>10</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I2" t="s">
-        <v>6</v>
+        <v>12</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
       </c>
       <c r="J2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="12.75">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F3" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -653,24 +748,24 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" ht="12.75">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F4" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -685,24 +780,24 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="12.75">
       <c r="A5">
         <v>1</v>
       </c>
       <c r="B5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F5" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -717,24 +812,24 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" ht="12.75">
       <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6">
         <v>1</v>
       </c>
-      <c r="B6">
-        <v>4</v>
-      </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -749,53 +844,53 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" ht="12.75">
       <c r="A7">
         <v>2</v>
       </c>
       <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="12.75">
+      <c r="A8">
+        <v>3</v>
+      </c>
+      <c r="B8">
         <v>1</v>
       </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F7" t="s">
-        <v>7</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>2</v>
-      </c>
-      <c r="B8">
-        <v>2</v>
-      </c>
       <c r="C8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E8" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F8" t="s">
         <v>12</v>
@@ -810,24 +905,24 @@
         <v>0</v>
       </c>
       <c r="J8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="12.75">
       <c r="A9">
         <v>3</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E9" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="F9" t="s">
         <v>12</v>
@@ -842,24 +937,24 @@
         <v>0</v>
       </c>
       <c r="J9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="12.75">
       <c r="A10">
         <v>3</v>
       </c>
       <c r="B10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C10">
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E10" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="F10" t="s">
         <v>12</v>
@@ -877,21 +972,21 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" ht="12.75">
       <c r="A11">
         <v>3</v>
       </c>
       <c r="B11">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C11">
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E11" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="F11" t="s">
         <v>12</v>
@@ -909,21 +1004,21 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" ht="12.75">
       <c r="A12">
         <v>3</v>
       </c>
       <c r="B12">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C12">
         <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E12" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="F12" t="s">
         <v>12</v>
@@ -941,56 +1036,56 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" ht="12.75">
       <c r="A13">
         <v>3</v>
       </c>
       <c r="B13">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13" t="s">
+        <v>12</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="12.75">
+      <c r="A14">
+        <v>4</v>
+      </c>
+      <c r="B14">
         <v>1</v>
       </c>
-      <c r="D13" t="s">
-        <v>13</v>
-      </c>
-      <c r="E13" t="s">
-        <v>36</v>
-      </c>
-      <c r="F13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13" t="s">
-        <v>12</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
-      <c r="J13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>3</v>
-      </c>
-      <c r="B14">
-        <v>6</v>
-      </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="F14" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1005,30 +1100,30 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" ht="12.75">
       <c r="A15">
         <v>4</v>
       </c>
       <c r="B15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="E15" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="F15" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1037,30 +1132,30 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" ht="12.75">
       <c r="A16">
         <v>4</v>
       </c>
       <c r="B16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F16" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1069,24 +1164,24 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" ht="12.75">
       <c r="A17">
         <v>4</v>
       </c>
       <c r="B17">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="F17" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1101,30 +1196,30 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" ht="12.75">
       <c r="A18">
         <v>4</v>
       </c>
       <c r="B18">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="E18" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="F18" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1133,30 +1228,30 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" ht="12.75">
       <c r="A19">
         <v>4</v>
       </c>
       <c r="B19">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="F19" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1165,30 +1260,30 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" ht="12.75">
       <c r="A20">
         <v>4</v>
       </c>
       <c r="B20">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="E20" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="F20" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1197,30 +1292,30 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" ht="12.75">
       <c r="A21">
         <v>4</v>
       </c>
       <c r="B21">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="F21" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1229,30 +1324,30 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" ht="12.75">
       <c r="A22">
         <v>4</v>
       </c>
       <c r="B22">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="E22" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="F22" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1261,30 +1356,30 @@
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" ht="12.75">
       <c r="A23">
         <v>4</v>
       </c>
       <c r="B23">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="E23" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="F23" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1293,21 +1388,21 @@
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" ht="12.75">
       <c r="A24">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B24">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E24" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="F24" t="s">
         <v>12</v>
@@ -1325,9 +1420,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" ht="12.75">
       <c r="A25">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B25">
         <v>1</v>
@@ -1336,13 +1431,13 @@
         <v>0</v>
       </c>
       <c r="D25" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F25" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1357,30 +1452,30 @@
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" ht="12.75">
       <c r="A26">
         <v>6</v>
       </c>
       <c r="B26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C26">
         <v>0</v>
       </c>
       <c r="D26" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="E26" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F26" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="G26">
         <v>0</v>
       </c>
       <c r="H26" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="I26">
         <v>0</v>
@@ -1389,21 +1484,21 @@
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" ht="12.75">
       <c r="A27">
         <v>6</v>
       </c>
       <c r="B27">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C27">
         <v>0</v>
       </c>
       <c r="D27" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E27" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F27" t="s">
         <v>29</v>
@@ -1412,7 +1507,7 @@
         <v>0</v>
       </c>
       <c r="H27" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="I27">
         <v>0</v>
@@ -1421,70 +1516,327 @@
         <v>12</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" ht="12.75">
       <c r="A28">
         <v>6</v>
       </c>
       <c r="B28">
+        <v>4</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28" t="s">
+        <v>37</v>
+      </c>
+      <c r="E28" t="s">
+        <v>43</v>
+      </c>
+      <c r="F28" t="s">
+        <v>29</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28" t="s">
+        <v>29</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="12.75">
+      <c r="A29">
+        <v>7</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29" t="s">
+        <v>15</v>
+      </c>
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>29</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29" t="s">
+        <v>29</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="12.75">
+      <c r="A30">
+        <v>7</v>
+      </c>
+      <c r="B30">
+        <v>2</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30" t="s">
+        <v>15</v>
+      </c>
+      <c r="E30" t="s">
+        <v>45</v>
+      </c>
+      <c r="F30" t="s">
+        <v>29</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30" t="s">
+        <v>29</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="12.75">
+      <c r="A31">
+        <v>8</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31" t="s">
+        <v>10</v>
+      </c>
+      <c r="E31" t="s">
+        <v>46</v>
+      </c>
+      <c r="F31" t="s">
+        <v>10</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31" t="s">
+        <v>29</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="12.75">
+      <c r="A32">
+        <v>8</v>
+      </c>
+      <c r="B32">
+        <v>2</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32" t="s">
+        <v>27</v>
+      </c>
+      <c r="E32" t="s">
+        <v>47</v>
+      </c>
+      <c r="F32" t="s">
+        <v>29</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32" t="s">
+        <v>27</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="12.75">
+      <c r="A33">
+        <v>8</v>
+      </c>
+      <c r="B33">
         <v>3</v>
       </c>
-      <c r="C28">
-        <v>0</v>
-      </c>
-      <c r="D28" t="s">
-        <v>13</v>
-      </c>
-      <c r="E28" t="s">
-        <v>42</v>
-      </c>
-      <c r="F28" t="s">
-        <v>29</v>
-      </c>
-      <c r="G28">
-        <v>0</v>
-      </c>
-      <c r="H28" t="s">
-        <v>29</v>
-      </c>
-      <c r="I28">
-        <v>0</v>
-      </c>
-      <c r="J28" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A29">
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33" t="s">
+        <v>48</v>
+      </c>
+      <c r="E33" t="s">
+        <v>49</v>
+      </c>
+      <c r="F33" t="s">
+        <v>48</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33" t="s">
+        <v>29</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="12.75">
+      <c r="A34">
+        <v>8</v>
+      </c>
+      <c r="B34">
+        <v>4</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34" t="s">
+        <v>27</v>
+      </c>
+      <c r="E34" t="s">
+        <v>50</v>
+      </c>
+      <c r="F34" t="s">
+        <v>29</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34" t="s">
+        <v>27</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="12.75">
+      <c r="A35">
+        <v>8</v>
+      </c>
+      <c r="B35">
+        <v>5</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35" t="s">
+        <v>27</v>
+      </c>
+      <c r="E35" t="s">
+        <v>51</v>
+      </c>
+      <c r="F35" t="s">
+        <v>29</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35" t="s">
+        <v>27</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="12.75">
+      <c r="A36">
+        <v>8</v>
+      </c>
+      <c r="B36">
         <v>6</v>
       </c>
-      <c r="B29">
-        <v>4</v>
-      </c>
-      <c r="C29">
-        <v>0</v>
-      </c>
-      <c r="E29" t="s">
-        <v>43</v>
-      </c>
-      <c r="F29" t="s">
-        <v>29</v>
-      </c>
-      <c r="G29">
-        <v>0</v>
-      </c>
-      <c r="H29" t="s">
-        <v>29</v>
-      </c>
-      <c r="I29">
-        <v>0</v>
-      </c>
-      <c r="J29" t="s">
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36" t="s">
+        <v>15</v>
+      </c>
+      <c r="E36" t="s">
+        <v>52</v>
+      </c>
+      <c r="F36" t="s">
+        <v>29</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36" t="s">
+        <v>29</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="12.75">
+      <c r="A37">
+        <v>8</v>
+      </c>
+      <c r="B37">
+        <v>7</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37" t="s">
+        <v>37</v>
+      </c>
+      <c r="E37" t="s">
+        <v>53</v>
+      </c>
+      <c r="F37" t="s">
+        <v>29</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37" t="s">
+        <v>29</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37" t="s">
         <v>12</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/Excel/Conversation.xlsx
+++ b/Excel/Conversation.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="75">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
@@ -311,6 +311,12 @@
   </si>
   <si>
     <t xml:space="preserve">按Esc，選擇回到營地\n回到營地後可以回復角色全部的狀態。累積足夠的資源再一口氣深入探索有時是突破困境的好方法。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">有一部分的素材能被做成料理。料理可以在探索或戰鬥中回復角色的 HP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">不同的素材組合能做出擁有不同效果的料理</t>
   </si>
 </sst>
 </file>
@@ -609,10 +615,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J53"/>
+  <dimension ref="A1:J1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J53" activeCellId="0" sqref="A1:J53"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J55" activeCellId="0" sqref="A1:J55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.17578125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2325,6 +2331,83 @@
         <v>12</v>
       </c>
     </row>
+    <row r="54" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B54" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C54" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G54" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I54" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J54" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B55" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C55" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G55" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I55" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J55" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="0"/>
+      <c r="B56" s="0"/>
+      <c r="C56" s="0"/>
+      <c r="D56" s="0"/>
+      <c r="E56" s="0"/>
+      <c r="F56" s="0"/>
+      <c r="G56" s="0"/>
+      <c r="H56" s="0"/>
+      <c r="I56" s="0"/>
+      <c r="J56" s="0"/>
+    </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>

--- a/Excel/Conversation.xlsx
+++ b/Excel/Conversation.xlsx
@@ -617,7 +617,7 @@
   </sheetPr>
   <dimension ref="A1:J1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="J55" activeCellId="0" sqref="A1:J55"/>
     </sheetView>
   </sheetViews>
@@ -2351,7 +2351,7 @@
         <v>29</v>
       </c>
       <c r="G54" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H54" s="1" t="s">
         <v>29</v>
@@ -2383,7 +2383,7 @@
         <v>29</v>
       </c>
       <c r="G55" s="1" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H55" s="1" t="s">
         <v>29</v>
@@ -2394,18 +2394,6 @@
       <c r="J55" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="56" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="0"/>
-      <c r="B56" s="0"/>
-      <c r="C56" s="0"/>
-      <c r="D56" s="0"/>
-      <c r="E56" s="0"/>
-      <c r="F56" s="0"/>
-      <c r="G56" s="0"/>
-      <c r="H56" s="0"/>
-      <c r="I56" s="0"/>
-      <c r="J56" s="0"/>
     </row>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>

--- a/Excel/Conversation.xlsx
+++ b/Excel/Conversation.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="77">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
@@ -317,6 +317,12 @@
   </si>
   <si>
     <t xml:space="preserve">不同的素材組合能做出擁有不同效果的料理</t>
+  </si>
+  <si>
+    <t xml:space="preserve">探索地圖中按 I 可以打開背包確認道具資訊</t>
+  </si>
+  <si>
+    <t xml:space="preserve">要使用料理或道具的話，按 C 打開角色列表，再按道具就可以了</t>
   </si>
 </sst>
 </file>
@@ -618,7 +624,7 @@
   <dimension ref="A1:J1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J55" activeCellId="0" sqref="A1:J55"/>
+      <selection pane="topLeft" activeCell="E57" activeCellId="0" sqref="E57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.17578125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2395,6 +2401,70 @@
         <v>12</v>
       </c>
     </row>
+    <row r="56" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B56" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C56" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G56" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I56" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B57" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C57" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G57" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H57" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I57" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J57" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/Excel/Conversation.xlsx
+++ b/Excel/Conversation.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="83">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
@@ -323,6 +323,53 @@
   </si>
   <si>
     <t xml:space="preserve">要使用料理或道具的話，按 C 打開角色列表，再按道具就可以了</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">系統</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">]</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">因為快要開天窗了，讓我在這邊把現有的角色都加入吧...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">八意永琳加入了隊伍</t>
+  </si>
+  <si>
+    <t xml:space="preserve">哆來咪加入了隊伍</t>
+  </si>
+  <si>
+    <t xml:space="preserve">藤原妹紅加入了隊伍</t>
+  </si>
+  <si>
+    <t xml:space="preserve">東方谷早苗加入了隊伍</t>
   </si>
 </sst>
 </file>
@@ -415,7 +462,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -429,6 +476,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -623,8 +674,8 @@
   </sheetPr>
   <dimension ref="A1:J1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E57" activeCellId="0" sqref="E57"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J62" activeCellId="0" sqref="A1:J62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.17578125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2459,11 +2510,174 @@
         <v>29</v>
       </c>
       <c r="I57" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J57" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B58" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="J57" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="C58" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G58" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H58" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I58" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B59" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C59" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G59" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H59" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I59" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J59" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B60" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="C60" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G60" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H60" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I60" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J60" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B61" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="C61" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G61" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H61" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I61" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J61" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B62" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="C62" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E62" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G62" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H62" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I62" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F63" s="2"/>
     </row>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>

--- a/Excel/Conversation.xlsx
+++ b/Excel/Conversation.xlsx
@@ -253,7 +253,7 @@
 想繼續探索時按右上的「出發」就可以了</t>
   </si>
   <si>
-    <t xml:space="preserve">霧雨魔理沙加入了隊伍</t>
+    <t xml:space="preserve">霧雨魔理沙加入了隊伍！</t>
   </si>
   <si>
     <t xml:space="preserve">按空白鍵拾取物品</t>
@@ -360,16 +360,16 @@
     <t xml:space="preserve">因為快要開天窗了，讓我在這邊把現有的角色都加入吧...</t>
   </si>
   <si>
-    <t xml:space="preserve">八意永琳加入了隊伍</t>
-  </si>
-  <si>
-    <t xml:space="preserve">哆來咪加入了隊伍</t>
-  </si>
-  <si>
-    <t xml:space="preserve">藤原妹紅加入了隊伍</t>
-  </si>
-  <si>
-    <t xml:space="preserve">東方谷早苗加入了隊伍</t>
+    <t xml:space="preserve">八意永琳加入了隊伍！</t>
+  </si>
+  <si>
+    <t xml:space="preserve">哆來咪加入了隊伍！</t>
+  </si>
+  <si>
+    <t xml:space="preserve">藤原妹紅加入了隊伍！</t>
+  </si>
+  <si>
+    <t xml:space="preserve">東方谷早苗加入了隊伍！</t>
   </si>
 </sst>
 </file>
@@ -479,7 +479,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -674,7 +674,7 @@
   </sheetPr>
   <dimension ref="A1:J1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="J62" activeCellId="0" sqref="A1:J62"/>
     </sheetView>
   </sheetViews>

--- a/Excel/Conversation.xlsx
+++ b/Excel/Conversation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\a710594\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07B31A28-7FB5-4B47-A48C-B17F4384F8E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB91D15C-572C-4E22-A4D9-79D744519477}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="95">
   <si>
     <t>ID</t>
   </si>
@@ -159,27 +159,6 @@
     <t>-</t>
   </si>
   <si>
-    <t>靈夢！我剛才不知為何就突然和大家走散了。</t>
-  </si>
-  <si>
-    <t>話說妳那邊調查有什麼成果嗎？</t>
-  </si>
-  <si>
-    <t>似乎是受到了異變的影響，我們的符卡使用受到了限制</t>
-  </si>
-  <si>
-    <t>聽妳那麼一說，我剛才戰鬥的時候確實沒辦法使用符卡…</t>
-  </si>
-  <si>
-    <t>現在想要發動符卡要有這個東西才行。</t>
-  </si>
-  <si>
-    <t>這是什麼？</t>
-  </si>
-  <si>
-    <t>空白符卡。在戰鬥中確認使用的方法吧。</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -212,16 +191,7 @@
     </r>
   </si>
   <si>
-    <t>獲得了空白符卡</t>
-  </si>
-  <si>
     <t>消耗符卡發動強大的效果。使用符卡後所有的我方成員都會進入冷卻時間，需要數回合後才能再次使用符卡。</t>
-  </si>
-  <si>
-    <t>前面好像是出口？</t>
-  </si>
-  <si>
-    <t>打倒礙事的傢伙前進吧！</t>
   </si>
   <si>
     <t>發出紅光的地方有該區域的守衛，打倒他就前往下一個區域</t>
@@ -268,9 +238,6 @@
   </si>
   <si>
     <t>BattleTutorial_4_4</t>
-  </si>
-  <si>
-    <t>大部分的攻擊都能作用在敵軍與我軍上，因此使用範圍攻擊時需要特別注意</t>
   </si>
   <si>
     <t>可惡，感覺比想像中吃力啊</t>
@@ -433,6 +400,46 @@
   </si>
   <si>
     <t>如果在找到出口前想先返回營地，可以按Esc，選擇回到營地\n回到營地後可以回復角色全部的狀態。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>靈夢！我剛才不知為何就突然和大家走散了。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>可能是受到異變的影響吧？</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>前面發出紅光的是什麼啊？</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>看起來像是出口？\n打倒礙事的傢伙前進吧！</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>東風谷早苗擅長治療同伴，也會使用魔法攻擊</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>治癒只能對夥伴使用，無視地形影響</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔彈是遠程魔法攻擊，會受到地形或障礙物的阻擋</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>要注意不要誤傷友軍</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>這是空白符卡，發動符卡效果所必需的道具。戰鬥的時候會再做進一步的說明。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>x</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -688,10 +695,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J73"/>
+  <dimension ref="A1:J72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E69" sqref="E69"/>
+    <sheetView tabSelected="1" topLeftCell="C49" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E68" sqref="E68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.1640625" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -1202,7 +1209,7 @@
         <v>10</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>30</v>
+        <v>85</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>10</v>
@@ -1231,19 +1238,19 @@
         <v>0</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>10</v>
+        <v>86</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="G17" s="1">
         <v>0</v>
       </c>
-      <c r="H17" s="2" t="s">
-        <v>29</v>
+      <c r="H17" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="I17" s="1">
         <v>0</v>
@@ -1263,19 +1270,19 @@
         <v>0</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>29</v>
+        <v>87</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="G18" s="1">
         <v>0</v>
       </c>
-      <c r="H18" s="1" t="s">
-        <v>27</v>
+      <c r="H18" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="I18" s="1">
         <v>0</v>
@@ -1295,19 +1302,19 @@
         <v>0</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>10</v>
+        <v>88</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="G19" s="1">
         <v>0</v>
       </c>
-      <c r="H19" s="2" t="s">
-        <v>29</v>
+      <c r="H19" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="I19" s="1">
         <v>0</v>
@@ -1326,11 +1333,11 @@
       <c r="C20" s="1">
         <v>0</v>
       </c>
-      <c r="D20" s="1" t="s">
-        <v>27</v>
+      <c r="D20" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>29</v>
@@ -1338,8 +1345,8 @@
       <c r="G20" s="1">
         <v>0</v>
       </c>
-      <c r="H20" s="1" t="s">
-        <v>27</v>
+      <c r="H20" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="I20" s="1">
         <v>0</v>
@@ -1358,14 +1365,14 @@
       <c r="C21" s="1">
         <v>0</v>
       </c>
-      <c r="D21" s="1" t="s">
-        <v>10</v>
+      <c r="D21" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>10</v>
+        <v>33</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="G21" s="1">
         <v>0</v>
@@ -1382,28 +1389,28 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B22" s="1">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C22" s="1">
         <v>0</v>
       </c>
-      <c r="D22" s="1" t="s">
-        <v>27</v>
+      <c r="D22" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="G22" s="1">
         <v>0</v>
       </c>
-      <c r="H22" s="1" t="s">
-        <v>27</v>
+      <c r="H22" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="I22" s="1">
         <v>0</v>
@@ -1414,28 +1421,28 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B23" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C23" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="G23" s="1">
         <v>0</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="I23" s="1">
         <v>0</v>
@@ -1446,10 +1453,10 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B24" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C24" s="1">
         <v>0</v>
@@ -1458,16 +1465,16 @@
         <v>15</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="G24" s="1">
         <v>0</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="I24" s="1">
         <v>0</v>
@@ -1478,10 +1485,10 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B25" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C25" s="1">
         <v>0</v>
@@ -1489,8 +1496,8 @@
       <c r="D25" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E25" s="1" t="s">
-        <v>40</v>
+      <c r="E25" s="4" t="s">
+        <v>65</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>10</v>
@@ -1499,7 +1506,7 @@
         <v>0</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>12</v>
+        <v>77</v>
       </c>
       <c r="I25" s="1">
         <v>0</v>
@@ -1510,10 +1517,10 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B26" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C26" s="1">
         <v>0</v>
@@ -1521,11 +1528,11 @@
       <c r="D26" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E26" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>29</v>
+      <c r="E26" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>77</v>
       </c>
       <c r="G26" s="1">
         <v>0</v>
@@ -1542,28 +1549,28 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B27" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C27" s="1">
         <v>0</v>
       </c>
-      <c r="D27" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>29</v>
+      <c r="D27" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="G27" s="1">
         <v>0</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>29</v>
+        <v>77</v>
       </c>
       <c r="I27" s="1">
         <v>0</v>
@@ -1574,28 +1581,28 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
+        <v>7</v>
+      </c>
+      <c r="B28" s="1">
         <v>6</v>
       </c>
-      <c r="B28" s="1">
-        <v>4</v>
-      </c>
       <c r="C28" s="1">
         <v>0</v>
       </c>
-      <c r="D28" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>29</v>
+      <c r="D28" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>77</v>
       </c>
       <c r="G28" s="1">
         <v>0</v>
       </c>
-      <c r="H28" s="2" t="s">
-        <v>29</v>
+      <c r="H28" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="I28" s="1">
         <v>0</v>
@@ -1609,25 +1616,25 @@
         <v>7</v>
       </c>
       <c r="B29" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C29" s="1">
-        <v>1</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>29</v>
+        <v>0</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>76</v>
       </c>
       <c r="G29" s="1">
         <v>0</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>29</v>
+        <v>77</v>
       </c>
       <c r="I29" s="1">
         <v>0</v>
@@ -1641,25 +1648,25 @@
         <v>7</v>
       </c>
       <c r="B30" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C30" s="1">
         <v>0</v>
       </c>
-      <c r="D30" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>29</v>
+      <c r="D30" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>78</v>
       </c>
       <c r="G30" s="1">
         <v>0</v>
       </c>
-      <c r="H30" s="2" t="s">
-        <v>29</v>
+      <c r="H30" s="1" t="s">
+        <v>77</v>
       </c>
       <c r="I30" s="1">
         <v>0</v>
@@ -1670,28 +1677,28 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B31" s="1">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C31" s="1">
         <v>0</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>10</v>
+        <v>76</v>
       </c>
       <c r="E31" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="F31" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="F31" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="G31" s="1">
         <v>0</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="I31" s="1">
         <v>0</v>
@@ -1702,10 +1709,10 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B32" s="1">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C32" s="1">
         <v>0</v>
@@ -1714,10 +1721,10 @@
         <v>27</v>
       </c>
       <c r="E32" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="F32" s="1" t="s">
         <v>77</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>88</v>
       </c>
       <c r="G32" s="1">
         <v>0</v>
@@ -1734,28 +1741,28 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B33" s="1">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C33" s="1">
         <v>0</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>10</v>
+        <v>76</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>10</v>
+        <v>76</v>
       </c>
       <c r="G33" s="1">
         <v>0</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="I33" s="1">
         <v>0</v>
@@ -1766,10 +1773,10 @@
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B34" s="1">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C34" s="1">
         <v>0</v>
@@ -1778,10 +1785,10 @@
         <v>27</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="G34" s="1">
         <v>0</v>
@@ -1798,28 +1805,28 @@
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B35" s="1">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C35" s="1">
         <v>0</v>
       </c>
-      <c r="D35" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="E35" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>87</v>
+      <c r="D35" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="G35" s="1">
         <v>0</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>88</v>
+        <v>29</v>
       </c>
       <c r="I35" s="1">
         <v>0</v>
@@ -1830,28 +1837,28 @@
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B36" s="1">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C36" s="1">
         <v>0</v>
       </c>
-      <c r="D36" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E36" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>89</v>
+      <c r="D36" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>77</v>
       </c>
       <c r="G36" s="1">
         <v>0</v>
       </c>
-      <c r="H36" s="1" t="s">
-        <v>88</v>
+      <c r="H36" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="I36" s="1">
         <v>0</v>
@@ -1865,25 +1872,25 @@
         <v>8</v>
       </c>
       <c r="B37" s="1">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C37" s="1">
         <v>0</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="E37" s="4" t="s">
-        <v>82</v>
+        <v>10</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>79</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>87</v>
+        <v>10</v>
       </c>
       <c r="G37" s="1">
         <v>0</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="I37" s="1">
         <v>0</v>
@@ -1897,7 +1904,7 @@
         <v>8</v>
       </c>
       <c r="B38" s="1">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C38" s="1">
         <v>0</v>
@@ -1905,11 +1912,11 @@
       <c r="D38" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E38" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>88</v>
+      <c r="E38" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>77</v>
       </c>
       <c r="G38" s="1">
         <v>0</v>
@@ -1929,25 +1936,25 @@
         <v>8</v>
       </c>
       <c r="B39" s="1">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C39" s="1">
         <v>0</v>
       </c>
-      <c r="D39" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="E39" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>87</v>
+      <c r="D39" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>77</v>
       </c>
       <c r="G39" s="1">
         <v>0</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>88</v>
+        <v>29</v>
       </c>
       <c r="I39" s="1">
         <v>0</v>
@@ -1961,25 +1968,25 @@
         <v>8</v>
       </c>
       <c r="B40" s="1">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C40" s="1">
         <v>0</v>
       </c>
-      <c r="D40" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E40" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>88</v>
+      <c r="D40" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>77</v>
       </c>
       <c r="G40" s="1">
         <v>0</v>
       </c>
-      <c r="H40" s="1" t="s">
-        <v>27</v>
+      <c r="H40" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="I40" s="1">
         <v>0</v>
@@ -1993,7 +2000,7 @@
         <v>8</v>
       </c>
       <c r="B41" s="1">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C41" s="1">
         <v>0</v>
@@ -2002,10 +2009,10 @@
         <v>15</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>47</v>
+        <v>84</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>29</v>
+        <v>77</v>
       </c>
       <c r="G41" s="1">
         <v>0</v>
@@ -2022,19 +2029,19 @@
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B42" s="1">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="C42" s="1">
         <v>0</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>86</v>
+        <v>38</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>29</v>
@@ -2054,7 +2061,7 @@
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B43" s="1">
         <v>1</v>
@@ -2066,7 +2073,7 @@
         <v>15</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>48</v>
+        <v>89</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>29</v>
@@ -2089,7 +2096,7 @@
         <v>10</v>
       </c>
       <c r="B44" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C44" s="1">
         <v>0</v>
@@ -2098,7 +2105,7 @@
         <v>15</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>49</v>
+        <v>90</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>29</v>
@@ -2121,7 +2128,7 @@
         <v>10</v>
       </c>
       <c r="B45" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C45" s="1">
         <v>0</v>
@@ -2130,7 +2137,7 @@
         <v>15</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>50</v>
+        <v>91</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>29</v>
@@ -2145,7 +2152,7 @@
         <v>0</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.3">
@@ -2153,7 +2160,7 @@
         <v>10</v>
       </c>
       <c r="B46" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C46" s="1">
         <v>0</v>
@@ -2162,7 +2169,7 @@
         <v>15</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>51</v>
+        <v>92</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>29</v>
@@ -2176,28 +2183,28 @@
       <c r="I46" s="1">
         <v>0</v>
       </c>
-      <c r="J46" s="2" t="s">
-        <v>52</v>
+      <c r="J46" s="3" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B47" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C47" s="1">
         <v>0</v>
       </c>
-      <c r="D47" s="2" t="s">
-        <v>15</v>
+      <c r="D47" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="F47" s="2" t="s">
-        <v>29</v>
+        <v>47</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="G47" s="1">
         <v>0</v>
@@ -2208,28 +2215,28 @@
       <c r="I47" s="1">
         <v>0</v>
       </c>
-      <c r="J47" s="3" t="s">
-        <v>54</v>
+      <c r="J47" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B48" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C48" s="1">
         <v>0</v>
       </c>
-      <c r="D48" s="2" t="s">
-        <v>15</v>
+      <c r="D48" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="F48" s="2" t="s">
-        <v>29</v>
+        <v>48</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="G48" s="1">
         <v>0</v>
@@ -2240,25 +2247,25 @@
       <c r="I48" s="1">
         <v>0</v>
       </c>
-      <c r="J48" s="3" t="s">
-        <v>56</v>
+      <c r="J48" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B49" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C49" s="1">
         <v>0</v>
       </c>
-      <c r="D49" s="2" t="s">
-        <v>15</v>
+      <c r="D49" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>29</v>
@@ -2266,8 +2273,8 @@
       <c r="G49" s="1">
         <v>0</v>
       </c>
-      <c r="H49" s="2" t="s">
-        <v>29</v>
+      <c r="H49" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="I49" s="1">
         <v>0</v>
@@ -2281,7 +2288,7 @@
         <v>11</v>
       </c>
       <c r="B50" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C50" s="1">
         <v>0</v>
@@ -2290,7 +2297,7 @@
         <v>10</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="F50" s="1" t="s">
         <v>10</v>
@@ -2298,7 +2305,7 @@
       <c r="G50" s="1">
         <v>0</v>
       </c>
-      <c r="H50" s="2" t="s">
+      <c r="H50" s="1" t="s">
         <v>29</v>
       </c>
       <c r="I50" s="1">
@@ -2313,24 +2320,24 @@
         <v>11</v>
       </c>
       <c r="B51" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C51" s="1">
         <v>0</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="G51" s="1">
         <v>0</v>
       </c>
-      <c r="H51" s="2" t="s">
+      <c r="H51" s="1" t="s">
         <v>29</v>
       </c>
       <c r="I51" s="1">
@@ -2345,7 +2352,7 @@
         <v>11</v>
       </c>
       <c r="B52" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C52" s="1">
         <v>0</v>
@@ -2354,7 +2361,7 @@
         <v>27</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>29</v>
@@ -2377,19 +2384,19 @@
         <v>11</v>
       </c>
       <c r="B53" s="1">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C53" s="1">
         <v>0</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="G53" s="1">
         <v>0</v>
@@ -2409,25 +2416,25 @@
         <v>11</v>
       </c>
       <c r="B54" s="1">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C54" s="1">
         <v>0</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="F54" s="1" t="s">
-        <v>46</v>
+        <v>54</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="G54" s="1">
         <v>0</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I54" s="1">
         <v>0</v>
@@ -2441,16 +2448,16 @@
         <v>11</v>
       </c>
       <c r="B55" s="1">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C55" s="1">
         <v>0</v>
       </c>
-      <c r="D55" s="1" t="s">
-        <v>27</v>
+      <c r="D55" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>63</v>
+        <v>83</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>29</v>
@@ -2459,7 +2466,7 @@
         <v>0</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="I55" s="1">
         <v>0</v>
@@ -2470,22 +2477,22 @@
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B56" s="1">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C56" s="1">
         <v>0</v>
       </c>
-      <c r="D56" s="1" t="s">
-        <v>46</v>
+      <c r="D56" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="F56" s="1" t="s">
-        <v>46</v>
+        <v>55</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="G56" s="1">
         <v>0</v>
@@ -2496,25 +2503,25 @@
       <c r="I56" s="1">
         <v>0</v>
       </c>
-      <c r="J56" s="2" t="s">
+      <c r="J56" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B57" s="1">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C57" s="1">
         <v>0</v>
       </c>
-      <c r="D57" s="1" t="s">
-        <v>27</v>
+      <c r="D57" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>29</v>
@@ -2523,21 +2530,21 @@
         <v>0</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="I57" s="1">
         <v>0</v>
       </c>
-      <c r="J57" s="2" t="s">
+      <c r="J57" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B58" s="1">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C58" s="1">
         <v>0</v>
@@ -2546,7 +2553,7 @@
         <v>15</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>94</v>
+        <v>57</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>29</v>
@@ -2560,16 +2567,16 @@
       <c r="I58" s="1">
         <v>0</v>
       </c>
-      <c r="J58" s="2" t="s">
+      <c r="J58" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B59" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C59" s="1">
         <v>0</v>
@@ -2578,7 +2585,7 @@
         <v>15</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>29</v>
@@ -2598,19 +2605,19 @@
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B60" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C60" s="1">
         <v>0</v>
       </c>
-      <c r="D60" s="2" t="s">
-        <v>15</v>
+      <c r="D60" s="3" t="s">
+        <v>59</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>29</v>
@@ -2630,19 +2637,19 @@
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B61" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C61" s="1">
         <v>0</v>
       </c>
-      <c r="D61" s="2" t="s">
-        <v>15</v>
+      <c r="D61" s="3" t="s">
+        <v>59</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>29</v>
@@ -2662,19 +2669,19 @@
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B62" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C62" s="1">
         <v>0</v>
       </c>
-      <c r="D62" s="2" t="s">
-        <v>15</v>
+      <c r="D62" s="3" t="s">
+        <v>59</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>29</v>
@@ -2697,16 +2704,16 @@
         <v>14</v>
       </c>
       <c r="B63" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C63" s="1">
         <v>0</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>29</v>
@@ -2729,16 +2736,16 @@
         <v>14</v>
       </c>
       <c r="B64" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C64" s="1">
         <v>0</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="E64" s="1" t="s">
-        <v>72</v>
+        <v>59</v>
+      </c>
+      <c r="E64" s="4" t="s">
+        <v>64</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>29</v>
@@ -2758,138 +2765,194 @@
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B65" s="1">
+        <v>1</v>
+      </c>
+      <c r="C65" s="1">
+        <v>0</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E65" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G65" s="1">
+        <v>0</v>
+      </c>
+      <c r="H65" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I65" s="1">
+        <v>0</v>
+      </c>
+      <c r="J65" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A68" s="1">
+        <v>10</v>
+      </c>
+      <c r="B68" s="1">
+        <v>1</v>
+      </c>
+      <c r="C68" s="1">
+        <v>0</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G68" s="1">
+        <v>0</v>
+      </c>
+      <c r="H68" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I68" s="1">
+        <v>0</v>
+      </c>
+      <c r="J68" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A69" s="1">
+        <v>10</v>
+      </c>
+      <c r="B69" s="1">
+        <v>2</v>
+      </c>
+      <c r="C69" s="1">
+        <v>0</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G69" s="1">
+        <v>0</v>
+      </c>
+      <c r="H69" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I69" s="1">
+        <v>0</v>
+      </c>
+      <c r="J69" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A70" s="1">
+        <v>10</v>
+      </c>
+      <c r="B70" s="1">
         <v>3</v>
       </c>
-      <c r="C65" s="1">
-        <v>0</v>
-      </c>
-      <c r="D65" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="E65" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="F65" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G65" s="1">
-        <v>0</v>
-      </c>
-      <c r="H65" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I65" s="1">
-        <v>0</v>
-      </c>
-      <c r="J65" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A66" s="1">
-        <v>14</v>
-      </c>
-      <c r="B66" s="1">
+      <c r="C70" s="1">
+        <v>0</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G70" s="1">
+        <v>0</v>
+      </c>
+      <c r="H70" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I70" s="1">
+        <v>0</v>
+      </c>
+      <c r="J70" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A71" s="1">
+        <v>10</v>
+      </c>
+      <c r="B71" s="1">
         <v>4</v>
       </c>
-      <c r="C66" s="1">
-        <v>0</v>
-      </c>
-      <c r="D66" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="E66" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="F66" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G66" s="1">
-        <v>0</v>
-      </c>
-      <c r="H66" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I66" s="1">
-        <v>0</v>
-      </c>
-      <c r="J66" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A67" s="1">
-        <v>14</v>
-      </c>
-      <c r="B67" s="1">
+      <c r="C71" s="1">
+        <v>0</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G71" s="1">
+        <v>0</v>
+      </c>
+      <c r="H71" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I71" s="1">
+        <v>0</v>
+      </c>
+      <c r="J71" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A72" s="1">
+        <v>10</v>
+      </c>
+      <c r="B72" s="1">
         <v>5</v>
       </c>
-      <c r="C67" s="1">
-        <v>0</v>
-      </c>
-      <c r="D67" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="E67" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="F67" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G67" s="1">
-        <v>0</v>
-      </c>
-      <c r="H67" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I67" s="1">
-        <v>0</v>
-      </c>
-      <c r="J67" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="D69" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E69" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="D70" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E70" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="D71" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E71" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C72" s="1">
+        <v>0</v>
+      </c>
       <c r="D72" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="D73" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E73" s="1" t="s">
-        <v>95</v>
+        <v>45</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G72" s="1">
+        <v>0</v>
+      </c>
+      <c r="H72" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I72" s="1">
+        <v>0</v>
+      </c>
+      <c r="J72" s="3" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/Conversation.xlsx
+++ b/Excel/Conversation.xlsx
@@ -1,21 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\a710594\Excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB91D15C-572C-4E22-A4D9-79D744519477}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="Calc"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -25,51 +20,51 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="95">
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>Page</t>
-  </si>
-  <si>
-    <t>Pause</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Dialog</t>
-  </si>
-  <si>
-    <t>Image_1</t>
-  </si>
-  <si>
-    <t>Motion_1</t>
-  </si>
-  <si>
-    <t>Image_2</t>
-  </si>
-  <si>
-    <t>Motion_2</t>
-  </si>
-  <si>
-    <t>Image_3</t>
-  </si>
-  <si>
-    <t>魂魄妖夢</t>
-  </si>
-  <si>
-    <t>這裡是哪裡？</t>
-  </si>
-  <si>
-    <t>x</t>
-  </si>
-  <si>
-    <t>靈夢跟我說發生異變了，要我來幫忙。話說回來，靈夢人呢？</t>
-  </si>
-  <si>
-    <t>總之先想辦法找到靈夢吧</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="92">
+  <si>
+    <t xml:space="preserve">ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pause</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dialog</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Image_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Motion_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Image_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Motion_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Image_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">魂魄妖夢</t>
+  </si>
+  <si>
+    <t xml:space="preserve">這裡是哪裡？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">x</t>
+  </si>
+  <si>
+    <t xml:space="preserve">靈夢跟我說發生異變了，要我來幫忙。話說回來，靈夢人呢？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">總之先想辦法找到靈夢吧</t>
   </si>
   <si>
     <r>
@@ -80,7 +75,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>[</t>
+      <t xml:space="preserve">[</t>
     </r>
     <r>
       <rPr>
@@ -90,7 +85,7 @@
         <family val="2"/>
         <charset val="136"/>
       </rPr>
-      <t>教學</t>
+      <t xml:space="preserve">教學</t>
     </r>
     <r>
       <rPr>
@@ -100,63 +95,78 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>]</t>
+      <t xml:space="preserve">]</t>
     </r>
   </si>
   <si>
-    <t>基本操作
+    <t xml:space="preserve">基本操作
 W/上：向前移動 S/下：向下移動
 A/左：向左旋轉 D/右：向右旋轉
 Q：向左平移 E：向右平移</t>
   </si>
   <si>
-    <t>感覺不對勁，是敵人嗎？</t>
-  </si>
-  <si>
-    <t>地圖中黃色的球體代表敵人，碰到它就會進入戰鬥</t>
-  </si>
-  <si>
-    <t>將角色從下方拖曳至場景的白色區域中。
+    <t xml:space="preserve">感覺不對勁，是敵人嗎？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">地圖中黃色的球體代表敵人，碰到它就會進入戰鬥</t>
+  </si>
+  <si>
+    <t xml:space="preserve">將角色從下方拖曳至場景的白色區域中。
 白色的區域代表可放置角色的位置。
 將角色配置完後按開始戰鬥。</t>
   </si>
   <si>
-    <t>Tutorial_1</t>
-  </si>
-  <si>
-    <t>地圖上白色的區域代表可移動的範圍。
+    <t xml:space="preserve">Tutorial_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">地圖上白色的區域代表可移動的範圍。
 請點選箭頭指示的位置。</t>
   </si>
   <si>
-    <t>現在地圖上白色的範圍是可以放技能的地方。
+    <t xml:space="preserve">現在地圖上白色的範圍是可以放技能的地方。
 請點選箭頭指示的位置。</t>
   </si>
   <si>
-    <t>回合結束後需要選擇角色面對的方向。
+    <t xml:space="preserve">回合結束後需要選擇角色面對的方向。
 角色面對的方向會影響命中率。
 比方說如果攻擊敵人的正面，命中率會比較低。
 反之從背後偷襲，命中率就會變高。
 盡量面向敵人，避免被偷襲吧。</t>
   </si>
   <si>
-    <t>試著使用支援吧
+    <t xml:space="preserve">試著使用支援吧
 支援可以強化自身，不消耗行動次數，一個回合只能使用一次。</t>
   </si>
   <si>
-    <t>妖夢的攻擊力提升了！
+    <t xml:space="preserve">妖夢的攻擊力提升了！
 接著攻擊敵人吧！</t>
   </si>
   <si>
-    <t>前面又有敵人了啊…</t>
-  </si>
-  <si>
-    <t>博麗靈夢</t>
-  </si>
-  <si>
-    <t>妖夢，妳在這裡啊？</t>
-  </si>
-  <si>
-    <t>-</t>
+    <t xml:space="preserve">前面又有敵人了啊…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">博麗靈夢</t>
+  </si>
+  <si>
+    <t xml:space="preserve">妖夢，妳在這裡啊？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">靈夢！我剛才不知為何就突然和大家走散了。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">可能是受到異變的影響吧？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">前面發出紅光的是什麼啊？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">看起來像是出口？\n打倒礙事的傢伙前進吧！</t>
+  </si>
+  <si>
+    <t xml:space="preserve">發出紅光的地方有該區域的守衛，打倒他就前往下一個區域</t>
   </si>
   <si>
     <r>
@@ -167,7 +177,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>[</t>
+      <t xml:space="preserve">[</t>
     </r>
     <r>
       <rPr>
@@ -177,7 +187,7 @@
         <family val="2"/>
         <charset val="136"/>
       </rPr>
-      <t>系統</t>
+      <t xml:space="preserve">系統</t>
     </r>
     <r>
       <rPr>
@@ -187,93 +197,138 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>]</t>
+      <t xml:space="preserve">]</t>
     </r>
   </si>
   <si>
-    <t>消耗符卡發動強大的效果。使用符卡後所有的我方成員都會進入冷卻時間，需要數回合後才能再次使用符卡。</t>
-  </si>
-  <si>
-    <t>發出紅光的地方有該區域的守衛，打倒他就前往下一個區域</t>
-  </si>
-  <si>
-    <t>博麗靈夢加入了隊伍！</t>
-  </si>
-  <si>
-    <t>靈夢的防禦力強大，支援能提升範圍內同伴的防禦力，擅長守護隊友。</t>
-  </si>
-  <si>
-    <t>旁邊的灰色區塊代表受到支援影響的區域，站在該區域的友方也能得到防禦力上升的效果。</t>
-  </si>
-  <si>
-    <t>霧雨魔理沙</t>
-  </si>
-  <si>
-    <t>結束一個區域的探索後，會先來到休息處，全部的角色的狀態都會回復。
+    <t xml:space="preserve">博麗靈夢加入了隊伍！</t>
+  </si>
+  <si>
+    <t xml:space="preserve">消耗符卡發動強大的效果。使用符卡後所有的我方成員都會進入冷卻時間，需要數回合後才能再次使用符卡。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">靈夢的防禦力強大，支援能提升範圍內同伴的防禦力，擅長守護隊友。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">旁邊的灰色區塊代表受到支援影響的區域，站在該區域的友方也能得到防禦力上升的效果。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">這裡是哪裡啊？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">不知道，不過應該是個適合休息的地方。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">欸？前面地上怎麼躺著一個人…這不是早苗嗎？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">喂，妳還好嗎？醒醒！</t>
+  </si>
+  <si>
+    <t xml:space="preserve">東風谷早苗</t>
+  </si>
+  <si>
+    <t xml:space="preserve">嗚…這裡是哪裡？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">我也不清楚…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">你們在這裡做什麼？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">調查異變。結果迷路了，然後就來到了這裡遇到妳。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">聽起來挺有意思的，我也來調查異變吧！</t>
+  </si>
+  <si>
+    <t xml:space="preserve">也是可以啦。人多好辦事。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">結束一個區域的探索後，會先來到休息處，全部的角色的狀態都會回復。
 想繼續探索時按右上的「出發」就可以了</t>
   </si>
   <si>
-    <t>按空白鍵拾取物品</t>
-  </si>
-  <si>
-    <t>霧雨魔理沙擅長使用遠程魔法攻擊</t>
-  </si>
-  <si>
-    <t>遠程攻擊有許多不同的類型</t>
-  </si>
-  <si>
-    <t>魔彈是直線型，會受到障礙物的阻擋</t>
-  </si>
-  <si>
-    <t>BattleTutorial_4_1</t>
-  </si>
-  <si>
-    <t>雷射是貫通型，不受障礙物的影響，會擊中直線內的所有目標</t>
-  </si>
-  <si>
-    <t>BattleTutorial_4_3</t>
-  </si>
-  <si>
-    <t>隕石術無視地形，無視敵我擊中範圍內的目標</t>
-  </si>
-  <si>
-    <t>BattleTutorial_4_4</t>
-  </si>
-  <si>
-    <t>可惡，感覺比想像中吃力啊</t>
-  </si>
-  <si>
-    <t>滿目瘡痍</t>
-  </si>
-  <si>
-    <t>先回營地吧。把撿到的東西做成糧食帶在身上，才有辦法在探索或戰鬥中進行補給</t>
-  </si>
-  <si>
-    <t>那些東西可以吃喔？</t>
-  </si>
-  <si>
-    <t>看不出來靈夢居然懂得料理</t>
-  </si>
-  <si>
-    <t>你以為我是怎麼度過那些沒有香油錢的日子的？神社邊的草我都能煮來吃</t>
-  </si>
-  <si>
-    <t>也太可憐...不如我分你一些我在魔法森林裡撿到的蘑菇...</t>
-  </si>
-  <si>
-    <t>別鬧了，趕快回營地啦</t>
-  </si>
-  <si>
-    <t>有一部分的素材能被做成料理。料理可以在探索或戰鬥中回復角色的 HP</t>
-  </si>
-  <si>
-    <t>不同的素材組合能做出擁有不同效果的料理</t>
-  </si>
-  <si>
-    <t>探索地圖中按 I 可以打開背包確認道具資訊</t>
-  </si>
-  <si>
-    <t>要使用料理或道具的話，按 C 打開角色列表，再按道具就可以了</t>
+    <t xml:space="preserve">東風谷早苗加入了隊伍！</t>
+  </si>
+  <si>
+    <t xml:space="preserve">怎麼感覺地形有點奇怪？回去的路呢？該不會又迷路了吧？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">呃，我想，只要像剛才一樣找到出口，就能再回到營地吧？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">除了特定樓層外，迷宮地形會隨機產生。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">找到出口，推進探索的進度吧。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">如果在找到出口前想先返回營地，可以按Esc，選擇回到營地\n回到營地後可以回復角色全部的狀態。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">按空白鍵拾取物品</t>
+  </si>
+  <si>
+    <t xml:space="preserve">東風谷早苗擅長治療同伴，也會使用魔法攻擊</t>
+  </si>
+  <si>
+    <t xml:space="preserve">治癒只能對夥伴使用，無視地形影響</t>
+  </si>
+  <si>
+    <t xml:space="preserve">魔彈是遠程魔法攻擊，會受到地形或障礙物的阻擋</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BattleTutorial_4_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">要注意不要誤傷友軍</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BattleTutorial_4_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">可惡，感覺比想像中吃力啊</t>
+  </si>
+  <si>
+    <t xml:space="preserve">霧雨魔理沙</t>
+  </si>
+  <si>
+    <t xml:space="preserve">滿目瘡痍</t>
+  </si>
+  <si>
+    <t xml:space="preserve">先回營地吧。把撿到的東西做成糧食帶在身上，才有辦法在探索或戰鬥中進行補給</t>
+  </si>
+  <si>
+    <t xml:space="preserve">那些東西可以吃喔？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">看不出來靈夢居然懂得料理</t>
+  </si>
+  <si>
+    <t xml:space="preserve">你以為我是怎麼度過那些沒有香油錢的日子的？神社邊的草我都能煮來吃</t>
+  </si>
+  <si>
+    <t xml:space="preserve">也太可憐...不如我分你一些我在魔法森林裡撿到的蘑菇...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">別鬧了，趕快回營地啦</t>
+  </si>
+  <si>
+    <t xml:space="preserve">按Esc，選擇回到營地\n回到營地後可以回復角色全部的狀態。累積足夠的資源再一口氣深入探索有時是突破困境的好方法。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">有一部分的素材能被做成料理。料理可以在探索或戰鬥中回復角色的 HP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">不同的素材組合能做出擁有不同效果的料理</t>
+  </si>
+  <si>
+    <t xml:space="preserve">探索地圖中按 I 可以打開背包確認道具資訊</t>
+  </si>
+  <si>
+    <t xml:space="preserve">要使用料理或道具的話，按 C 打開角色列表，再按道具就可以了</t>
   </si>
   <si>
     <r>
@@ -284,7 +339,7 @@
         <family val="2"/>
         <charset val="136"/>
       </rPr>
-      <t>[</t>
+      <t xml:space="preserve">[</t>
     </r>
     <r>
       <rPr>
@@ -294,7 +349,7 @@
         <family val="2"/>
         <charset val="136"/>
       </rPr>
-      <t>系統</t>
+      <t xml:space="preserve">系統</t>
     </r>
     <r>
       <rPr>
@@ -304,155 +359,77 @@
         <family val="2"/>
         <charset val="136"/>
       </rPr>
-      <t>]</t>
+      <t xml:space="preserve">]</t>
     </r>
   </si>
   <si>
-    <t>因為快要開天窗了，讓我在這邊把現有的角色都加入吧...</t>
-  </si>
-  <si>
-    <t>八意永琳加入了隊伍！</t>
-  </si>
-  <si>
-    <t>哆來咪加入了隊伍！</t>
-  </si>
-  <si>
-    <t>藤原妹紅加入了隊伍！</t>
-  </si>
-  <si>
-    <t>東方谷早苗加入了隊伍！</t>
-  </si>
-  <si>
-    <t>這裡是哪裡啊？</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>不知道，不過應該是個適合休息的地方。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>欸？前面地上怎麼躺著一個人…這不是早苗嗎？</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>喂，妳還好嗎？醒醒！</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>嗚…這裡是哪裡？</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>我也不清楚…</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>你們在這裡做什麼？</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>調查異變。結果迷路了，然後就來到了這裡遇到妳。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>聽起來挺有意思的，我也來調查異變吧！</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>也是可以啦。人多好辦事。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>東風谷早苗加入了隊伍！</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>東風谷早苗</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>-</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>魂魄妖夢</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>怎麼感覺地形有點奇怪？回去的路呢？該不會又迷路了吧？</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>呃，我想，只要像剛才一樣找到出口，就能再回到營地吧？</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>除了特定樓層外，迷宮地形會隨機產生。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>找到出口，推進探索的進度吧。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>按Esc，選擇回到營地\n回到營地後可以回復角色全部的狀態。累積足夠的資源再一口氣深入探索有時是突破困境的好方法。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>如果在找到出口前想先返回營地，可以按Esc，選擇回到營地\n回到營地後可以回復角色全部的狀態。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>靈夢！我剛才不知為何就突然和大家走散了。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>可能是受到異變的影響吧？</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>前面發出紅光的是什麼啊？</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>看起來像是出口？\n打倒礙事的傢伙前進吧！</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>東風谷早苗擅長治療同伴，也會使用魔法攻擊</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>治癒只能對夥伴使用，無視地形影響</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>魔彈是遠程魔法攻擊，會受到地形或障礙物的阻擋</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>要注意不要誤傷友軍</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>這是空白符卡，發動符卡效果所必需的道具。戰鬥的時候會再做進一步的說明。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>x</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <t xml:space="preserve">因為快要開天窗了，讓我在這邊把現有的角色都加入吧...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">八意永琳加入了隊伍！</t>
+  </si>
+  <si>
+    <t xml:space="preserve">哆來咪加入了隊伍！</t>
+  </si>
+  <si>
+    <t xml:space="preserve">藤原妹紅加入了隊伍！</t>
+  </si>
+  <si>
+    <t xml:space="preserve">東方谷早苗加入了隊伍！</t>
+  </si>
+  <si>
+    <t xml:space="preserve">這是空白符卡，發動符卡效果所必需的道具。戰鬥的時候會再做進一步的說明。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">霧雨魔理沙擅長使用遠程魔法攻擊</t>
+  </si>
+  <si>
+    <t xml:space="preserve">遠程攻擊有許多不同的類型</t>
+  </si>
+  <si>
+    <t xml:space="preserve">魔彈是直線型，會受到障礙物的阻擋</t>
+  </si>
+  <si>
+    <t xml:space="preserve">雷射是貫通型，不受障礙物的影響，會擊中直線內的所有目標</t>
+  </si>
+  <si>
+    <t xml:space="preserve">隕石術無視地形，無視敵我擊中範圍內的目標</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BattleTutorial_4_4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="General"/>
+  </numFmts>
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="微軟正黑體"/>
       <family val="2"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
       <charset val="136"/>
     </font>
     <font>
@@ -469,12 +446,6 @@
       <family val="2"/>
       <charset val="136"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <name val="微軟正黑體"/>
-      <family val="2"/>
-      <charset val="136"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -485,7 +456,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
@@ -493,81 +464,113 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  <cellStyleXfs count="20">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
   <cellXfs count="5">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="一般" xfId="0" builtinId="0"/>
+  <cellStyles count="6">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
         <a:srgbClr val="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:srgbClr val="FFFFFF"/>
+        <a:srgbClr val="ffffff"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="44546a"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="e7e6e6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4472c4"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="ed7d31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="a5a5a5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="ffc000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="5b9bd5"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="70ad47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0563c1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="954f72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204" pitchFamily="0" charset="1"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="0" charset="1"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
       </a:minorFont>
@@ -599,7 +602,7 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect/>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
         <a:gradFill>
           <a:gsLst>
@@ -623,7 +626,7 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect/>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
@@ -683,39 +686,40 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect/>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:J72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C49" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E68" sqref="E68"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J65" activeCellId="0" sqref="A1:J65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.1640625" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.16796875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="2.83203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="5.33203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="6.25" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.08203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="90.9140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10.08203125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="8.5" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.33203125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="8.5" style="1" customWidth="1"/>
-    <col min="10" max="10" width="8.9140625" style="1" customWidth="1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="2.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="5.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="6.25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="10.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="90.91"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="10.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="8.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="8.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="8.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="8.91"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -747,14 +751,14 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
+    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="D2" s="1" t="s">
@@ -766,27 +770,27 @@
       <c r="F2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="1">
+      <c r="G2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="1">
+      <c r="I2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
+    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="1" t="n">
         <v>0</v>
       </c>
       <c r="D3" s="1" t="s">
@@ -798,27 +802,27 @@
       <c r="F3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="1">
+      <c r="G3" s="1" t="n">
         <v>0</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="1">
+      <c r="I3" s="1" t="n">
         <v>0</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
+    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="1" t="n">
         <v>0</v>
       </c>
       <c r="D4" s="1" t="s">
@@ -830,27 +834,27 @@
       <c r="F4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="1">
+      <c r="G4" s="1" t="n">
         <v>0</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I4" s="1">
+      <c r="I4" s="1" t="n">
         <v>0</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
+    <row r="5" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="1" t="n">
         <v>0</v>
       </c>
       <c r="D5" s="2" t="s">
@@ -862,27 +866,27 @@
       <c r="F5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G5" s="1" t="n">
         <v>0</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I5" s="1">
+      <c r="I5" s="1" t="n">
         <v>0</v>
       </c>
       <c r="J5" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
+    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="1" t="n">
         <v>0</v>
       </c>
       <c r="D6" s="1" t="s">
@@ -894,27 +898,27 @@
       <c r="F6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G6" s="1" t="n">
         <v>0</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="1">
+      <c r="I6" s="1" t="n">
         <v>0</v>
       </c>
       <c r="J6" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
+    <row r="7" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="1" t="n">
         <v>0</v>
       </c>
       <c r="D7" s="2" t="s">
@@ -926,27 +930,27 @@
       <c r="F7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="1">
+      <c r="G7" s="1" t="n">
         <v>0</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I7" s="1">
+      <c r="I7" s="1" t="n">
         <v>0</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
+    <row r="8" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D8" s="2" t="s">
@@ -958,27 +962,27 @@
       <c r="F8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="1">
+      <c r="G8" s="1" t="n">
         <v>0</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I8" s="1">
+      <c r="I8" s="1" t="n">
         <v>0</v>
       </c>
       <c r="J8" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
+    <row r="9" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D9" s="2" t="s">
@@ -990,27 +994,27 @@
       <c r="F9" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G9" s="1">
+      <c r="G9" s="1" t="n">
         <v>0</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I9" s="1">
+      <c r="I9" s="1" t="n">
         <v>0</v>
       </c>
       <c r="J9" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
+    <row r="10" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D10" s="2" t="s">
@@ -1022,27 +1026,27 @@
       <c r="F10" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G10" s="1">
+      <c r="G10" s="1" t="n">
         <v>0</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I10" s="1">
+      <c r="I10" s="1" t="n">
         <v>0</v>
       </c>
       <c r="J10" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="1">
+    <row r="11" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D11" s="2" t="s">
@@ -1054,27 +1058,27 @@
       <c r="F11" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G11" s="1">
+      <c r="G11" s="1" t="n">
         <v>0</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I11" s="1">
+      <c r="I11" s="1" t="n">
         <v>0</v>
       </c>
       <c r="J11" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="1">
+    <row r="12" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D12" s="2" t="s">
@@ -1086,27 +1090,27 @@
       <c r="F12" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G12" s="1">
+      <c r="G12" s="1" t="n">
         <v>0</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I12" s="1">
+      <c r="I12" s="1" t="n">
         <v>0</v>
       </c>
       <c r="J12" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="1">
+    <row r="13" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13" s="1" t="n">
         <v>0</v>
       </c>
       <c r="D13" s="2" t="s">
@@ -1118,27 +1122,27 @@
       <c r="F13" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G13" s="1">
+      <c r="G13" s="1" t="n">
         <v>0</v>
       </c>
       <c r="H13" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I13" s="1">
+      <c r="I13" s="1" t="n">
         <v>0</v>
       </c>
       <c r="J13" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="1">
+    <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14" s="1" t="n">
         <v>0</v>
       </c>
       <c r="D14" s="1" t="s">
@@ -1150,27 +1154,27 @@
       <c r="F14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G14" s="1">
+      <c r="G14" s="1" t="n">
         <v>0</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I14" s="1">
+      <c r="I14" s="1" t="n">
         <v>0</v>
       </c>
       <c r="J14" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="1">
+    <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B15" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C15" s="1" t="n">
         <v>0</v>
       </c>
       <c r="D15" s="1" t="s">
@@ -1182,1782 +1186,1786 @@
       <c r="F15" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G15" s="1">
+      <c r="G15" s="1" t="n">
         <v>0</v>
       </c>
       <c r="H15" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="I15" s="1">
+      <c r="I15" s="1" t="n">
         <v>0</v>
       </c>
       <c r="J15" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="1">
+    <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B16" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C16" s="1" t="n">
         <v>0</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>85</v>
+        <v>30</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G16" s="1">
+      <c r="G16" s="1" t="n">
         <v>0</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="I16" s="1">
+      <c r="I16" s="1" t="n">
         <v>0</v>
       </c>
       <c r="J16" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="1">
+    <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B17" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C17" s="1" t="n">
         <v>0</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>27</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>86</v>
+        <v>31</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G17" s="1">
+      <c r="G17" s="1" t="n">
         <v>0</v>
       </c>
       <c r="H17" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="I17" s="1">
+      <c r="I17" s="1" t="n">
         <v>0</v>
       </c>
       <c r="J17" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" s="1">
+    <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B18" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C18" s="1" t="n">
         <v>0</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>87</v>
+        <v>32</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G18" s="1">
+      <c r="G18" s="1" t="n">
         <v>0</v>
       </c>
       <c r="H18" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="I18" s="1">
+      <c r="I18" s="1" t="n">
         <v>0</v>
       </c>
       <c r="J18" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" s="1">
+    <row r="19" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B19" s="1">
+      <c r="B19" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C19" s="1" t="n">
         <v>0</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>27</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>88</v>
+        <v>33</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G19" s="1">
+      <c r="G19" s="1" t="n">
         <v>0</v>
       </c>
       <c r="H19" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="I19" s="1">
+      <c r="I19" s="1" t="n">
         <v>0</v>
       </c>
       <c r="J19" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" s="1">
+    <row r="20" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B20" s="1">
+      <c r="B20" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="C20" s="1">
+      <c r="C20" s="1" t="n">
         <v>0</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G20" s="1">
+      <c r="G20" s="1" t="n">
         <v>0</v>
       </c>
       <c r="H20" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="I20" s="1">
+      <c r="I20" s="1" t="n">
         <v>0</v>
       </c>
       <c r="J20" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" s="1">
+    <row r="21" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B21" s="1">
+      <c r="B21" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="C21" s="1">
+      <c r="C21" s="1" t="n">
         <v>0</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G21" s="1">
+      <c r="G21" s="1" t="n">
         <v>0</v>
       </c>
       <c r="H21" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="I21" s="1">
+      <c r="I21" s="1" t="n">
         <v>0</v>
       </c>
       <c r="J21" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22" s="1">
+    <row r="22" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B22" s="1">
+      <c r="B22" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C22" s="1">
+      <c r="C22" s="1" t="n">
         <v>0</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G22" s="1">
+      <c r="G22" s="1" t="n">
         <v>0</v>
       </c>
       <c r="H22" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I22" s="1">
+      <c r="I22" s="1" t="n">
         <v>0</v>
       </c>
       <c r="J22" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" s="1">
+    <row r="23" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B23" s="1">
+      <c r="B23" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C23" s="1">
+      <c r="C23" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G23" s="1">
+      <c r="G23" s="1" t="n">
         <v>0</v>
       </c>
       <c r="H23" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="I23" s="1">
+      <c r="I23" s="1" t="n">
         <v>0</v>
       </c>
       <c r="J23" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" s="1">
+    <row r="24" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B24" s="1">
+      <c r="B24" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="C24" s="1">
+      <c r="C24" s="1" t="n">
         <v>0</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G24" s="1">
+      <c r="G24" s="1" t="n">
         <v>0</v>
       </c>
       <c r="H24" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="I24" s="1">
+      <c r="I24" s="1" t="n">
         <v>0</v>
       </c>
       <c r="J24" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A25" s="1">
+    <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B25" s="1">
-        <v>3</v>
-      </c>
-      <c r="C25" s="1">
+      <c r="B25" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C25" s="1" t="n">
         <v>0</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E25" s="4" t="s">
-        <v>65</v>
+      <c r="E25" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G25" s="1">
+      <c r="G25" s="1" t="n">
         <v>0</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="I25" s="1">
+        <v>29</v>
+      </c>
+      <c r="I25" s="1" t="n">
         <v>0</v>
       </c>
       <c r="J25" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A26" s="1">
+    <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B26" s="1">
-        <v>4</v>
-      </c>
-      <c r="C26" s="1">
+      <c r="B26" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C26" s="1" t="n">
         <v>0</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E26" s="4" t="s">
-        <v>66</v>
+      <c r="E26" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="G26" s="1">
+        <v>29</v>
+      </c>
+      <c r="G26" s="1" t="n">
         <v>0</v>
       </c>
       <c r="H26" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="I26" s="1">
+      <c r="I26" s="1" t="n">
         <v>0</v>
       </c>
       <c r="J26" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A27" s="1">
+    <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B27" s="1">
-        <v>5</v>
-      </c>
-      <c r="C27" s="1">
+      <c r="B27" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="C27" s="1" t="n">
         <v>0</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E27" s="4" t="s">
-        <v>67</v>
+      <c r="E27" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G27" s="1">
+      <c r="G27" s="1" t="n">
         <v>0</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="I27" s="1">
+        <v>29</v>
+      </c>
+      <c r="I27" s="1" t="n">
         <v>0</v>
       </c>
       <c r="J27" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A28" s="1">
+    <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B28" s="1">
-        <v>6</v>
-      </c>
-      <c r="C28" s="1">
+      <c r="B28" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="C28" s="1" t="n">
         <v>0</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E28" s="4" t="s">
-        <v>68</v>
+      <c r="E28" s="3" t="s">
+        <v>43</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="G28" s="1">
+        <v>29</v>
+      </c>
+      <c r="G28" s="1" t="n">
         <v>0</v>
       </c>
       <c r="H28" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="I28" s="1">
+      <c r="I28" s="1" t="n">
         <v>0</v>
       </c>
       <c r="J28" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A29" s="1">
+    <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B29" s="1">
+      <c r="B29" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="C29" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G29" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I29" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="C29" s="1">
-        <v>0</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="G29" s="1">
-        <v>0</v>
-      </c>
-      <c r="H29" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="I29" s="1">
-        <v>0</v>
-      </c>
-      <c r="J29" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A30" s="1">
+      <c r="B30" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="C30" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G30" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I30" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B30" s="1">
+      <c r="B31" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="C31" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G31" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I31" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B32" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="C30" s="1">
-        <v>0</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E30" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="G30" s="1">
-        <v>0</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="I30" s="1">
-        <v>0</v>
-      </c>
-      <c r="J30" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A31" s="1">
-        <v>7</v>
-      </c>
-      <c r="B31" s="1">
-        <v>9</v>
-      </c>
-      <c r="C31" s="1">
-        <v>0</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="G31" s="1">
-        <v>0</v>
-      </c>
-      <c r="H31" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="I31" s="1">
-        <v>0</v>
-      </c>
-      <c r="J31" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A32" s="1">
-        <v>7</v>
-      </c>
-      <c r="B32" s="1">
-        <v>10</v>
-      </c>
-      <c r="C32" s="1">
+      <c r="C32" s="1" t="n">
         <v>0</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E32" s="4" t="s">
-        <v>72</v>
+      <c r="E32" s="3" t="s">
+        <v>48</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="G32" s="1">
+        <v>29</v>
+      </c>
+      <c r="G32" s="1" t="n">
         <v>0</v>
       </c>
       <c r="H32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="I32" s="1">
+      <c r="I32" s="1" t="n">
         <v>0</v>
       </c>
       <c r="J32" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A33" s="1">
+    <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B33" s="1">
-        <v>11</v>
-      </c>
-      <c r="C33" s="1">
+      <c r="B33" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="C33" s="1" t="n">
         <v>0</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="E33" s="4" t="s">
-        <v>73</v>
+        <v>44</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>49</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="G33" s="1">
+        <v>44</v>
+      </c>
+      <c r="G33" s="1" t="n">
         <v>0</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="I33" s="1">
+        <v>29</v>
+      </c>
+      <c r="I33" s="1" t="n">
         <v>0</v>
       </c>
       <c r="J33" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A34" s="1">
+    <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B34" s="1">
-        <v>12</v>
-      </c>
-      <c r="C34" s="1">
+      <c r="B34" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="C34" s="1" t="n">
         <v>0</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E34" s="4" t="s">
-        <v>74</v>
+      <c r="E34" s="3" t="s">
+        <v>50</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="G34" s="1">
+        <v>29</v>
+      </c>
+      <c r="G34" s="1" t="n">
         <v>0</v>
       </c>
       <c r="H34" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="I34" s="1">
+      <c r="I34" s="1" t="n">
         <v>0</v>
       </c>
       <c r="J34" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A35" s="1">
+    <row r="35" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B35" s="1">
-        <v>13</v>
-      </c>
-      <c r="C35" s="1">
+      <c r="B35" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="C35" s="1" t="n">
         <v>0</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G35" s="1">
+      <c r="G35" s="1" t="n">
         <v>0</v>
       </c>
       <c r="H35" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="I35" s="1">
+      <c r="I35" s="1" t="n">
         <v>0</v>
       </c>
       <c r="J35" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A36" s="1">
+    <row r="36" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B36" s="1">
-        <v>14</v>
-      </c>
-      <c r="C36" s="1">
+      <c r="B36" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="C36" s="1" t="n">
         <v>0</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>75</v>
+        <v>52</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="G36" s="1">
+        <v>29</v>
+      </c>
+      <c r="G36" s="1" t="n">
         <v>0</v>
       </c>
       <c r="H36" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="I36" s="1">
+      <c r="I36" s="1" t="n">
         <v>0</v>
       </c>
       <c r="J36" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A37" s="1">
+    <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B37" s="1">
+      <c r="B37" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C37" s="1">
+      <c r="C37" s="1" t="n">
         <v>0</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>79</v>
+        <v>53</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G37" s="1">
+      <c r="G37" s="1" t="n">
         <v>0</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="I37" s="1">
+        <v>29</v>
+      </c>
+      <c r="I37" s="1" t="n">
         <v>0</v>
       </c>
       <c r="J37" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A38" s="1">
+    <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B38" s="1">
+      <c r="B38" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="C38" s="1">
+      <c r="C38" s="1" t="n">
         <v>0</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>27</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="G38" s="1">
+        <v>29</v>
+      </c>
+      <c r="G38" s="1" t="n">
         <v>0</v>
       </c>
       <c r="H38" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="I38" s="1">
+      <c r="I38" s="1" t="n">
         <v>0</v>
       </c>
       <c r="J38" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A39" s="1">
+    <row r="39" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B39" s="1">
+      <c r="B39" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="C39" s="1">
+      <c r="C39" s="1" t="n">
         <v>0</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>81</v>
+        <v>55</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="G39" s="1">
+        <v>29</v>
+      </c>
+      <c r="G39" s="1" t="n">
         <v>0</v>
       </c>
       <c r="H39" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="I39" s="1">
+      <c r="I39" s="1" t="n">
         <v>0</v>
       </c>
       <c r="J39" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A40" s="1">
+    <row r="40" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B40" s="1">
+      <c r="B40" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="C40" s="1">
+      <c r="C40" s="1" t="n">
         <v>0</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>82</v>
+        <v>56</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="G40" s="1">
+        <v>29</v>
+      </c>
+      <c r="G40" s="1" t="n">
         <v>0</v>
       </c>
       <c r="H40" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="I40" s="1">
+      <c r="I40" s="1" t="n">
         <v>0</v>
       </c>
       <c r="J40" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A41" s="1">
+    <row r="41" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B41" s="1">
+      <c r="B41" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="C41" s="1">
+      <c r="C41" s="1" t="n">
         <v>0</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>84</v>
+        <v>57</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="G41" s="1">
+        <v>29</v>
+      </c>
+      <c r="G41" s="1" t="n">
         <v>0</v>
       </c>
       <c r="H41" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="I41" s="1">
+      <c r="I41" s="1" t="n">
         <v>0</v>
       </c>
       <c r="J41" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A42" s="1">
+    <row r="42" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B42" s="1">
+      <c r="B42" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C42" s="1">
+      <c r="C42" s="1" t="n">
         <v>0</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G42" s="1">
+      <c r="G42" s="1" t="n">
         <v>0</v>
       </c>
       <c r="H42" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="I42" s="1">
+      <c r="I42" s="1" t="n">
         <v>0</v>
       </c>
       <c r="J42" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A43" s="1">
-        <v>10</v>
-      </c>
-      <c r="B43" s="1">
+    <row r="43" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B43" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C43" s="1">
+      <c r="C43" s="1" t="n">
         <v>0</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>89</v>
+        <v>59</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G43" s="1">
+      <c r="G43" s="1" t="n">
         <v>0</v>
       </c>
       <c r="H43" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="I43" s="1">
+      <c r="I43" s="1" t="n">
         <v>0</v>
       </c>
       <c r="J43" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A44" s="1">
-        <v>10</v>
-      </c>
-      <c r="B44" s="1">
+    <row r="44" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B44" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="C44" s="1">
+      <c r="C44" s="1" t="n">
         <v>0</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G44" s="1">
+      <c r="G44" s="1" t="n">
         <v>0</v>
       </c>
       <c r="H44" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="I44" s="1">
+      <c r="I44" s="1" t="n">
         <v>0</v>
       </c>
       <c r="J44" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A45" s="1">
-        <v>10</v>
-      </c>
-      <c r="B45" s="1">
+    <row r="45" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B45" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="C45" s="1">
+      <c r="C45" s="1" t="n">
         <v>0</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>91</v>
+        <v>61</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G45" s="1">
+      <c r="G45" s="1" t="n">
         <v>0</v>
       </c>
       <c r="H45" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="I45" s="1">
+      <c r="I45" s="1" t="n">
         <v>0</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A46" s="1">
-        <v>10</v>
-      </c>
-      <c r="B46" s="1">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B46" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="C46" s="1">
+      <c r="C46" s="1" t="n">
         <v>0</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>92</v>
+        <v>63</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G46" s="1">
+      <c r="G46" s="1" t="n">
         <v>0</v>
       </c>
       <c r="H46" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="I46" s="1">
-        <v>0</v>
-      </c>
-      <c r="J46" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A47" s="1">
+      <c r="I46" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B47" s="1">
+      <c r="B47" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C47" s="1">
+      <c r="C47" s="1" t="n">
         <v>0</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="F47" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G47" s="1">
+      <c r="G47" s="1" t="n">
         <v>0</v>
       </c>
       <c r="H47" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="I47" s="1">
+      <c r="I47" s="1" t="n">
         <v>0</v>
       </c>
       <c r="J47" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A48" s="1">
+    <row r="48" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B48" s="1">
+      <c r="B48" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="C48" s="1">
+      <c r="C48" s="1" t="n">
         <v>0</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G48" s="1">
+        <v>66</v>
+      </c>
+      <c r="G48" s="1" t="n">
         <v>0</v>
       </c>
       <c r="H48" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="I48" s="1">
+      <c r="I48" s="1" t="n">
         <v>0</v>
       </c>
       <c r="J48" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A49" s="1">
+    <row r="49" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B49" s="1">
+      <c r="B49" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="C49" s="1">
+      <c r="C49" s="1" t="n">
         <v>0</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>27</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G49" s="1">
+      <c r="G49" s="1" t="n">
         <v>0</v>
       </c>
       <c r="H49" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="I49" s="1">
+      <c r="I49" s="1" t="n">
         <v>0</v>
       </c>
       <c r="J49" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A50" s="1">
+    <row r="50" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B50" s="1">
+      <c r="B50" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="C50" s="1">
+      <c r="C50" s="1" t="n">
         <v>0</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="F50" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G50" s="1">
+      <c r="G50" s="1" t="n">
         <v>0</v>
       </c>
       <c r="H50" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I50" s="1">
+      <c r="I50" s="1" t="n">
         <v>0</v>
       </c>
       <c r="J50" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A51" s="1">
+    <row r="51" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B51" s="1">
+      <c r="B51" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="C51" s="1">
+      <c r="C51" s="1" t="n">
         <v>0</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G51" s="1">
+        <v>66</v>
+      </c>
+      <c r="G51" s="1" t="n">
         <v>0</v>
       </c>
       <c r="H51" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I51" s="1">
+      <c r="I51" s="1" t="n">
         <v>0</v>
       </c>
       <c r="J51" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A52" s="1">
+    <row r="52" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B52" s="1">
+      <c r="B52" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="C52" s="1">
+      <c r="C52" s="1" t="n">
         <v>0</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>27</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>52</v>
+        <v>71</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G52" s="1">
+      <c r="G52" s="1" t="n">
         <v>0</v>
       </c>
       <c r="H52" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="I52" s="1">
+      <c r="I52" s="1" t="n">
         <v>0</v>
       </c>
       <c r="J52" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A53" s="1">
+    <row r="53" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B53" s="1">
+      <c r="B53" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="C53" s="1">
+      <c r="C53" s="1" t="n">
         <v>0</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G53" s="1">
+        <v>66</v>
+      </c>
+      <c r="G53" s="1" t="n">
         <v>0</v>
       </c>
       <c r="H53" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I53" s="1">
+      <c r="I53" s="1" t="n">
         <v>0</v>
       </c>
       <c r="J53" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A54" s="1">
+    <row r="54" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B54" s="1">
+      <c r="B54" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="C54" s="1">
+      <c r="C54" s="1" t="n">
         <v>0</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>27</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G54" s="1">
+      <c r="G54" s="1" t="n">
         <v>0</v>
       </c>
       <c r="H54" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="I54" s="1">
+      <c r="I54" s="1" t="n">
         <v>0</v>
       </c>
       <c r="J54" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A55" s="1">
+    <row r="55" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B55" s="1">
+      <c r="B55" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="C55" s="1">
+      <c r="C55" s="1" t="n">
         <v>0</v>
       </c>
       <c r="D55" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E55" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G55" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I55" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J55" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B56" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C56" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G56" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I56" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B57" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C57" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G57" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H57" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I57" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J57" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B58" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C58" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G58" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H58" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I58" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B59" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C59" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G59" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H59" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I59" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J59" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B60" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C60" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D60" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G60" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H60" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I60" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J60" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B61" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C61" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D61" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G61" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H61" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I61" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J61" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B62" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="C62" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D62" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G62" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H62" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I62" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B63" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="C63" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D63" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="E63" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="F55" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G55" s="1">
-        <v>0</v>
-      </c>
-      <c r="H55" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I55" s="1">
-        <v>0</v>
-      </c>
-      <c r="J55" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A56" s="1">
-        <v>12</v>
-      </c>
-      <c r="B56" s="1">
+      <c r="F63" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G63" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H63" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I63" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J63" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B64" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="C64" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D64" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="E64" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G64" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H64" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I64" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J64" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B65" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C56" s="1">
-        <v>0</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E56" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="F56" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G56" s="1">
-        <v>0</v>
-      </c>
-      <c r="H56" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I56" s="1">
-        <v>0</v>
-      </c>
-      <c r="J56" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A57" s="1">
-        <v>12</v>
-      </c>
-      <c r="B57" s="1">
+      <c r="C65" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E65" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G65" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H65" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I65" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J65" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B68" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C68" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G68" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H68" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I68" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J68" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B69" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="C57" s="1">
-        <v>0</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E57" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F57" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G57" s="1">
-        <v>0</v>
-      </c>
-      <c r="H57" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I57" s="1">
-        <v>0</v>
-      </c>
-      <c r="J57" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A58" s="1">
-        <v>13</v>
-      </c>
-      <c r="B58" s="1">
-        <v>1</v>
-      </c>
-      <c r="C58" s="1">
-        <v>0</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F58" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G58" s="1">
-        <v>0</v>
-      </c>
-      <c r="H58" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I58" s="1">
-        <v>0</v>
-      </c>
-      <c r="J58" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A59" s="1">
-        <v>13</v>
-      </c>
-      <c r="B59" s="1">
-        <v>2</v>
-      </c>
-      <c r="C59" s="1">
-        <v>0</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E59" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="F59" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G59" s="1">
-        <v>0</v>
-      </c>
-      <c r="H59" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I59" s="1">
-        <v>0</v>
-      </c>
-      <c r="J59" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A60" s="1">
-        <v>14</v>
-      </c>
-      <c r="B60" s="1">
-        <v>1</v>
-      </c>
-      <c r="C60" s="1">
-        <v>0</v>
-      </c>
-      <c r="D60" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="E60" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="F60" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G60" s="1">
-        <v>0</v>
-      </c>
-      <c r="H60" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I60" s="1">
-        <v>0</v>
-      </c>
-      <c r="J60" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A61" s="1">
-        <v>14</v>
-      </c>
-      <c r="B61" s="1">
-        <v>2</v>
-      </c>
-      <c r="C61" s="1">
-        <v>0</v>
-      </c>
-      <c r="D61" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="E61" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="F61" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G61" s="1">
-        <v>0</v>
-      </c>
-      <c r="H61" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I61" s="1">
-        <v>0</v>
-      </c>
-      <c r="J61" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A62" s="1">
-        <v>14</v>
-      </c>
-      <c r="B62" s="1">
+      <c r="C69" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G69" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H69" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I69" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B70" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="C62" s="1">
-        <v>0</v>
-      </c>
-      <c r="D62" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="E62" s="1" t="s">
+      <c r="C70" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G70" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H70" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I70" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J70" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="F62" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G62" s="1">
-        <v>0</v>
-      </c>
-      <c r="H62" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I62" s="1">
-        <v>0</v>
-      </c>
-      <c r="J62" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A63" s="1">
-        <v>14</v>
-      </c>
-      <c r="B63" s="1">
+    </row>
+    <row r="71" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B71" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="C63" s="1">
-        <v>0</v>
-      </c>
-      <c r="D63" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="E63" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F63" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G63" s="1">
-        <v>0</v>
-      </c>
-      <c r="H63" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I63" s="1">
-        <v>0</v>
-      </c>
-      <c r="J63" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A64" s="1">
-        <v>14</v>
-      </c>
-      <c r="B64" s="1">
+      <c r="C71" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G71" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H71" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I71" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J71" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B72" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="C64" s="1">
-        <v>0</v>
-      </c>
-      <c r="D64" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="E64" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="F64" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G64" s="1">
-        <v>0</v>
-      </c>
-      <c r="H64" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I64" s="1">
-        <v>0</v>
-      </c>
-      <c r="J64" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A65" s="1">
-        <v>15</v>
-      </c>
-      <c r="B65" s="1">
-        <v>1</v>
-      </c>
-      <c r="C65" s="1">
-        <v>0</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E65" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="F65" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G65" s="1">
-        <v>0</v>
-      </c>
-      <c r="H65" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I65" s="1">
-        <v>0</v>
-      </c>
-      <c r="J65" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A68" s="1">
-        <v>10</v>
-      </c>
-      <c r="B68" s="1">
-        <v>1</v>
-      </c>
-      <c r="C68" s="1">
-        <v>0</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E68" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F68" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G68" s="1">
-        <v>0</v>
-      </c>
-      <c r="H68" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I68" s="1">
-        <v>0</v>
-      </c>
-      <c r="J68" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A69" s="1">
-        <v>10</v>
-      </c>
-      <c r="B69" s="1">
-        <v>2</v>
-      </c>
-      <c r="C69" s="1">
-        <v>0</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E69" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F69" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G69" s="1">
-        <v>0</v>
-      </c>
-      <c r="H69" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I69" s="1">
-        <v>0</v>
-      </c>
-      <c r="J69" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A70" s="1">
-        <v>10</v>
-      </c>
-      <c r="B70" s="1">
-        <v>3</v>
-      </c>
-      <c r="C70" s="1">
-        <v>0</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E70" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F70" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G70" s="1">
-        <v>0</v>
-      </c>
-      <c r="H70" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I70" s="1">
-        <v>0</v>
-      </c>
-      <c r="J70" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A71" s="1">
-        <v>10</v>
-      </c>
-      <c r="B71" s="1">
-        <v>4</v>
-      </c>
-      <c r="C71" s="1">
-        <v>0</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E71" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F71" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G71" s="1">
-        <v>0</v>
-      </c>
-      <c r="H71" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I71" s="1">
-        <v>0</v>
-      </c>
-      <c r="J71" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A72" s="1">
-        <v>10</v>
-      </c>
-      <c r="B72" s="1">
-        <v>5</v>
-      </c>
-      <c r="C72" s="1">
+      <c r="C72" s="1" t="n">
         <v>0</v>
       </c>
       <c r="D72" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G72" s="1">
+      <c r="G72" s="1" t="n">
         <v>0</v>
       </c>
       <c r="H72" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="I72" s="1">
-        <v>0</v>
-      </c>
-      <c r="J72" s="3" t="s">
-        <v>46</v>
+      <c r="I72" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" s="4" t="s">
+        <v>91</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>
--- a/Excel/Conversation.xlsx
+++ b/Excel/Conversation.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="92">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
@@ -295,37 +295,22 @@
     <t xml:space="preserve">呼，感覺比想像中吃力啊</t>
   </si>
   <si>
-    <t xml:space="preserve">光是靠我治療大家感覺還是不夠啊</t>
-  </si>
-  <si>
-    <t xml:space="preserve">果然還是需要補給呢。剛剛撿到的東西中有些可以當成食材，把它做成糧食才能一邊探索一邊補給。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">那些東西可以吃喔？</t>
-  </si>
-  <si>
-    <t xml:space="preserve">看不出來靈夢居然懂得料理</t>
-  </si>
-  <si>
-    <t xml:space="preserve">你以為我是怎麼度過那些沒有香油錢的日子的？神社邊的草我都能煮來吃</t>
-  </si>
-  <si>
-    <t xml:space="preserve">也太可憐…有空來我這邊吃飯吧…</t>
-  </si>
-  <si>
-    <t xml:space="preserve">別鬧了，趕快做飯啦</t>
-  </si>
-  <si>
-    <t xml:space="preserve">有一部分的素材能被做成料理。料理可以在探索或戰鬥中回復角色的 HP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">不同的素材組合能做出擁有不同效果的料理</t>
-  </si>
-  <si>
-    <t xml:space="preserve">探索地圖中按 I 可以打開背包確認道具資訊</t>
-  </si>
-  <si>
-    <t xml:space="preserve">要使用料理或道具的話，按 C 打開角色列表，再按道具就可以了</t>
+    <t xml:space="preserve">肚子好餓喔...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">霧雨魔理沙</t>
+  </si>
+  <si>
+    <t xml:space="preserve">靈夢，我剛才剛好撿了一堆蘑菇，要吃嗎？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">魔理沙你也來啦？呃，那些蘑菇真的沒問題嗎？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">當然沒問題啦！我可是研究蘑菇的專家！</t>
+  </si>
+  <si>
+    <t xml:space="preserve">還是先煮熟再吃吧？這樣比較安全。</t>
   </si>
   <si>
     <r>
@@ -360,12 +345,27 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">霧雨魔理沙加入了隊伍！</t>
+  </si>
+  <si>
+    <t xml:space="preserve">得到了5個野菇</t>
+  </si>
+  <si>
+    <t xml:space="preserve">有一部分的素材能被做成料理。料理可以在探索或戰鬥中回復角色的 HP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">不同的素材組合能做出擁有不同效果的料理</t>
+  </si>
+  <si>
+    <t xml:space="preserve">探索地圖中按 I 可以打開背包確認道具資訊</t>
+  </si>
+  <si>
+    <t xml:space="preserve">要使用料理或道具的話，按 C 打開角色列表，再按道具就可以了</t>
+  </si>
+  <si>
     <t xml:space="preserve">因為快要開天窗了，讓我在這邊把現有的角色都加入吧...</t>
   </si>
   <si>
-    <t xml:space="preserve">霧雨魔理沙加入了隊伍！</t>
-  </si>
-  <si>
     <t xml:space="preserve">八意永琳加入了隊伍！</t>
   </si>
   <si>
@@ -373,9 +373,6 @@
   </si>
   <si>
     <t xml:space="preserve">藤原妹紅加入了隊伍！</t>
-  </si>
-  <si>
-    <t xml:space="preserve">這是空白符卡，發動符卡效果所必需的道具。戰鬥的時候會再做進一步的說明。</t>
   </si>
   <si>
     <t xml:space="preserve">霧雨魔理沙擅長使用遠程魔法攻擊</t>
@@ -704,8 +701,8 @@
   </sheetPr>
   <dimension ref="A1:J72"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A49" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J42" activeCellId="0" sqref="J42"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J58" activeCellId="0" sqref="A1:J58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.16796875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -717,7 +714,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="90.91"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="10.09"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="8.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="8.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="16.18"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="8.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="8.91"/>
   </cols>
@@ -1522,7 +1519,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="n">
         <v>7</v>
       </c>
@@ -2290,7 +2287,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="n">
         <v>11</v>
       </c>
@@ -2301,19 +2298,19 @@
         <v>0</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>67</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="G50" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="H50" s="2" t="s">
-        <v>29</v>
+      <c r="H50" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="I50" s="1" t="n">
         <v>0</v>
@@ -2332,20 +2329,20 @@
       <c r="C51" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="D51" s="1" t="s">
-        <v>27</v>
+      <c r="D51" s="0" t="s">
+        <v>68</v>
       </c>
       <c r="E51" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F51" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="F51" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="G51" s="1" t="n">
         <v>0</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="I51" s="1" t="n">
         <v>0</v>
@@ -2365,19 +2362,19 @@
         <v>0</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="G52" s="1" t="n">
         <v>0</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I52" s="1" t="n">
         <v>0</v>
@@ -2397,13 +2394,13 @@
         <v>0</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>45</v>
+        <v>68</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>45</v>
+        <v>68</v>
       </c>
       <c r="G53" s="1" t="n">
         <v>0</v>
@@ -2428,20 +2425,20 @@
       <c r="C54" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="D54" s="1" t="s">
-        <v>27</v>
+      <c r="D54" s="0" t="s">
+        <v>45</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="F54" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F54" s="1" t="s">
         <v>29</v>
       </c>
       <c r="G54" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="H54" s="1" t="s">
-        <v>27</v>
+      <c r="H54" s="0" t="s">
+        <v>45</v>
       </c>
       <c r="I54" s="1" t="n">
         <v>0</v>
@@ -2450,7 +2447,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="n">
         <v>11</v>
       </c>
@@ -2460,14 +2457,14 @@
       <c r="C55" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="D55" s="1" t="s">
-        <v>45</v>
+      <c r="D55" s="4" t="s">
+        <v>73</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F55" s="1" t="s">
-        <v>45</v>
+        <v>74</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="G55" s="1" t="n">
         <v>0</v>
@@ -2482,7 +2479,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="n">
         <v>11</v>
       </c>
@@ -2492,11 +2489,11 @@
       <c r="C56" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="D56" s="1" t="s">
-        <v>27</v>
+      <c r="D56" s="4" t="s">
+        <v>73</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>29</v>
@@ -2505,7 +2502,7 @@
         <v>0</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="I56" s="1" t="n">
         <v>0</v>
@@ -2528,7 +2525,7 @@
         <v>15</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>29</v>
@@ -2560,7 +2557,7 @@
         <v>15</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>29</v>
@@ -2579,43 +2576,15 @@
       </c>
     </row>
     <row r="59" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B59" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C59" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E59" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="F59" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G59" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="H59" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I59" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="J59" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="D59" s="3"/>
+      <c r="F59" s="3"/>
     </row>
     <row r="60" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B60" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C60" s="1" t="n">
         <v>0</v>
@@ -2624,7 +2593,7 @@
         <v>15</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>29</v>
@@ -2644,16 +2613,16 @@
     </row>
     <row r="61" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B61" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C61" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="D61" s="4" t="s">
-        <v>78</v>
+      <c r="D61" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="E61" s="1" t="s">
         <v>79</v>
@@ -2679,15 +2648,15 @@
         <v>14</v>
       </c>
       <c r="B62" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C62" s="1" t="n">
         <v>0</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="E62" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E62" s="1" t="s">
         <v>80</v>
       </c>
       <c r="F62" s="2" t="s">
@@ -2711,16 +2680,16 @@
         <v>14</v>
       </c>
       <c r="B63" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C63" s="1" t="n">
         <v>0</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="E63" s="1" t="s">
-        <v>81</v>
+        <v>73</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>74</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>29</v>
@@ -2743,16 +2712,16 @@
         <v>14</v>
       </c>
       <c r="B64" s="1" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C64" s="1" t="n">
         <v>0</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>29</v>
@@ -2775,16 +2744,16 @@
         <v>14</v>
       </c>
       <c r="B65" s="1" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C65" s="1" t="n">
         <v>0</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>29</v>
@@ -2804,19 +2773,19 @@
     </row>
     <row r="66" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B66" s="1" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C66" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="D66" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E66" s="3" t="s">
-        <v>84</v>
+      <c r="D66" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>83</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>29</v>
@@ -2848,7 +2817,7 @@
         <v>15</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>29</v>
@@ -2880,7 +2849,7 @@
         <v>15</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>29</v>
@@ -2912,22 +2881,22 @@
         <v>15</v>
       </c>
       <c r="E70" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G70" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H70" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I70" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J70" s="2" t="s">
         <v>87</v>
-      </c>
-      <c r="F70" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G70" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="H70" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I70" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="J70" s="2" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2944,22 +2913,22 @@
         <v>15</v>
       </c>
       <c r="E71" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G71" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H71" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I71" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J71" s="4" t="s">
         <v>89</v>
-      </c>
-      <c r="F71" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G71" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="H71" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I71" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="J71" s="4" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2976,22 +2945,22 @@
         <v>15</v>
       </c>
       <c r="E72" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G72" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H72" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I72" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" s="4" t="s">
         <v>91</v>
-      </c>
-      <c r="F72" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G72" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="H72" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I72" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" s="4" t="s">
-        <v>92</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/Conversation.xlsx
+++ b/Excel/Conversation.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="93">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
@@ -108,7 +108,7 @@
     <t xml:space="preserve">感覺不對勁，是敵人嗎？</t>
   </si>
   <si>
-    <t xml:space="preserve">地圖中黃色的球體代表敵人，碰到它就會進入戰鬥</t>
+    <t xml:space="preserve">碰到敵人就會進入戰鬥</t>
   </si>
   <si>
     <t xml:space="preserve">將角色從下方拖曳至場景的白色區域中。
@@ -355,6 +355,9 @@
   </si>
   <si>
     <t xml:space="preserve">不同的素材組合能做出擁有不同效果的料理</t>
+  </si>
+  <si>
+    <t xml:space="preserve">符卡的效果非常強大，但是使用後所有的隊友的符卡都會進入冷卻狀態，必需等到下次行動的時候才能使用符卡。</t>
   </si>
   <si>
     <t xml:space="preserve">探索地圖中按 I 可以打開背包確認道具資訊</t>
@@ -489,7 +492,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -508,6 +511,10 @@
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -699,10 +706,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J72"/>
+  <dimension ref="A1:J73"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J58" activeCellId="0" sqref="A1:J58"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J59" activeCellId="0" sqref="A1:J59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.16796875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2329,7 +2336,7 @@
       <c r="C51" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="D51" s="0" t="s">
+      <c r="D51" s="1" t="s">
         <v>68</v>
       </c>
       <c r="E51" s="1" t="s">
@@ -2425,7 +2432,7 @@
       <c r="C54" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="D54" s="0" t="s">
+      <c r="D54" s="1" t="s">
         <v>45</v>
       </c>
       <c r="E54" s="1" t="s">
@@ -2437,7 +2444,7 @@
       <c r="G54" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="H54" s="0" t="s">
+      <c r="H54" s="1" t="s">
         <v>45</v>
       </c>
       <c r="I54" s="1" t="n">
@@ -2565,9 +2572,7 @@
       <c r="G58" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="H58" s="1" t="s">
-        <v>29</v>
-      </c>
+      <c r="H58" s="0"/>
       <c r="I58" s="1" t="n">
         <v>0</v>
       </c>
@@ -2575,48 +2580,48 @@
         <v>12</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D59" s="3"/>
-      <c r="F59" s="3"/>
-    </row>
-    <row r="60" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="1" t="n">
+    <row r="59" customFormat="false" ht="20.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A59" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B60" s="1" t="n">
+      <c r="B59" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C60" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E60" s="1" t="s">
+      <c r="C59" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E59" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="F60" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G60" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="H60" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I60" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="J60" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="F59" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G59" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H59" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I59" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J59" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D60" s="3"/>
+      <c r="F60" s="3"/>
     </row>
     <row r="61" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B61" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C61" s="1" t="n">
         <v>0</v>
@@ -2645,16 +2650,16 @@
     </row>
     <row r="62" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B62" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C62" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="D62" s="4" t="s">
-        <v>73</v>
+      <c r="D62" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="E62" s="1" t="s">
         <v>80</v>
@@ -2680,7 +2685,7 @@
         <v>14</v>
       </c>
       <c r="B63" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C63" s="1" t="n">
         <v>0</v>
@@ -2688,8 +2693,8 @@
       <c r="D63" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="E63" s="3" t="s">
-        <v>74</v>
+      <c r="E63" s="1" t="s">
+        <v>81</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>29</v>
@@ -2712,7 +2717,7 @@
         <v>14</v>
       </c>
       <c r="B64" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C64" s="1" t="n">
         <v>0</v>
@@ -2720,8 +2725,8 @@
       <c r="D64" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="E64" s="1" t="s">
-        <v>81</v>
+      <c r="E64" s="3" t="s">
+        <v>74</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>29</v>
@@ -2744,7 +2749,7 @@
         <v>14</v>
       </c>
       <c r="B65" s="1" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C65" s="1" t="n">
         <v>0</v>
@@ -2776,7 +2781,7 @@
         <v>14</v>
       </c>
       <c r="B66" s="1" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C66" s="1" t="n">
         <v>0</v>
@@ -2803,35 +2808,35 @@
         <v>12</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B68" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C68" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E68" s="1" t="s">
+    <row r="67" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B67" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="C67" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D67" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="E67" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="F68" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G68" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="H68" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I68" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="J68" s="2" t="s">
+      <c r="F67" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G67" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H67" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I67" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J67" s="1" t="s">
         <v>12</v>
       </c>
     </row>
@@ -2840,7 +2845,7 @@
         <v>10</v>
       </c>
       <c r="B69" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C69" s="1" t="n">
         <v>0</v>
@@ -2872,7 +2877,7 @@
         <v>10</v>
       </c>
       <c r="B70" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C70" s="1" t="n">
         <v>0</v>
@@ -2896,7 +2901,7 @@
         <v>0</v>
       </c>
       <c r="J70" s="2" t="s">
-        <v>87</v>
+        <v>12</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2904,7 +2909,7 @@
         <v>10</v>
       </c>
       <c r="B71" s="1" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C71" s="1" t="n">
         <v>0</v>
@@ -2913,22 +2918,22 @@
         <v>15</v>
       </c>
       <c r="E71" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G71" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H71" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I71" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J71" s="2" t="s">
         <v>88</v>
-      </c>
-      <c r="F71" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G71" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="H71" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I71" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="J71" s="4" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2936,31 +2941,63 @@
         <v>10</v>
       </c>
       <c r="B72" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="C72" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G72" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H72" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I72" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B73" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="C72" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E72" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="F72" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G72" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="H72" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I72" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" s="4" t="s">
+      <c r="C73" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E73" s="1" t="s">
         <v>91</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G73" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H73" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I73" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J73" s="4" t="s">
+        <v>92</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/Conversation.xlsx
+++ b/Excel/Conversation.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="61">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
@@ -37,16 +37,7 @@
     <t xml:space="preserve">Image_1</t>
   </si>
   <si>
-    <t xml:space="preserve">Motion_1</t>
-  </si>
-  <si>
     <t xml:space="preserve">Image_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Motion_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Image_3</t>
   </si>
   <si>
     <t xml:space="preserve">魂魄妖夢</t>
@@ -295,19 +286,10 @@
     <t xml:space="preserve">魔彈是直線型，會受到障礙物的阻擋</t>
   </si>
   <si>
-    <t xml:space="preserve">BattleTutorial_4_1</t>
-  </si>
-  <si>
     <t xml:space="preserve">雷射是貫通型，不受障礙物的影響，會擊中直線內的所有目標</t>
   </si>
   <si>
-    <t xml:space="preserve">BattleTutorial_4_3</t>
-  </si>
-  <si>
     <t xml:space="preserve">隕石術無視地形，無視敵我擊中範圍內的目標</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BattleTutorial_4_4</t>
   </si>
 </sst>
 </file>
@@ -618,10 +600,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:XFD1048576"/>
+  <dimension ref="A1:F1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D35" activeCellId="0" sqref="D35"/>
+      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.16796875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -631,11 +613,9 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="10.09"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="90.91"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="10.09"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="8.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="16.18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="8.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="8.91"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16384" style="1" width="11.05"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="16.18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16381" min="16381" style="1" width="11.05"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16382" style="1" width="11.04"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -657,15 +637,6 @@
       <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>8</v>
-      </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="n">
@@ -675,25 +646,16 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>11</v>
+        <v>6</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -704,25 +666,16 @@
         <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="E3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H3" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>11</v>
+        <v>6</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -733,25 +686,16 @@
         <v>3</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H4" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>11</v>
+        <v>6</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -762,25 +706,16 @@
         <v>4</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H5" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -791,25 +726,16 @@
         <v>1</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H6" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>11</v>
+        <v>6</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -820,25 +746,16 @@
         <v>2</v>
       </c>
       <c r="C7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="E7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H7" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -849,25 +766,16 @@
         <v>1</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H8" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>11</v>
+        <v>6</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -878,25 +786,16 @@
         <v>2</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F9" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H9" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -907,25 +806,16 @@
         <v>3</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F10" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H10" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>11</v>
+        <v>6</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -936,25 +826,16 @@
         <v>4</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F11" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H11" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -965,25 +846,16 @@
         <v>5</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F12" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H12" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>11</v>
+        <v>6</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -994,25 +866,16 @@
         <v>6</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F13" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H13" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1023,27 +886,17 @@
         <v>1</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F14" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H14" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="XFD14" s="0"/>
+        <v>6</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="n">
@@ -1053,27 +906,17 @@
         <v>2</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F15" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H15" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="XFD15" s="0"/>
+        <v>18</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="n">
@@ -1083,27 +926,17 @@
         <v>3</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F16" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H16" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="XFD16" s="0"/>
+        <v>6</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="n">
@@ -1113,27 +946,17 @@
         <v>4</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F17" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H17" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="XFD17" s="0"/>
+        <v>18</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="n">
@@ -1143,27 +966,17 @@
         <v>5</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F18" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H18" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="XFD18" s="0"/>
+        <v>6</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="n">
@@ -1173,27 +986,17 @@
         <v>6</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F19" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H19" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="XFD19" s="0"/>
+        <v>18</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="n">
@@ -1203,25 +1006,16 @@
         <v>1</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F20" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H20" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" s="2" t="s">
-        <v>11</v>
+        <v>6</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1232,25 +1026,16 @@
         <v>2</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F21" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1261,25 +1046,16 @@
         <v>3</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F22" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H22" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1290,25 +1066,16 @@
         <v>4</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F23" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H23" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1319,25 +1086,16 @@
         <v>5</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F24" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H24" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1348,25 +1106,16 @@
         <v>6</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F25" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H25" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1377,25 +1126,16 @@
         <v>1</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F26" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H26" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" s="2" t="s">
-        <v>11</v>
+        <v>6</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1406,25 +1146,16 @@
         <v>2</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F27" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="G27" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="H27" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1435,25 +1166,16 @@
         <v>3</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="F28" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H28" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" s="2" t="s">
-        <v>11</v>
+        <v>39</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1464,25 +1186,16 @@
         <v>4</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F29" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H29" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1493,25 +1206,16 @@
         <v>5</v>
       </c>
       <c r="C30" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D30" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D30" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="E30" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F30" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H30" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" s="2" t="s">
-        <v>11</v>
+        <v>39</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1522,25 +1226,16 @@
         <v>6</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F31" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H31" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1551,25 +1246,16 @@
         <v>7</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F32" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H32" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1580,25 +1266,16 @@
         <v>8</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F33" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H33" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1609,25 +1286,16 @@
         <v>1</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F34" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H34" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" s="1" t="s">
-        <v>11</v>
+        <v>18</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1638,174 +1306,21 @@
         <v>2</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F35" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H35" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0"/>
-      <c r="B36" s="0"/>
-      <c r="C36" s="0"/>
-      <c r="D36" s="0"/>
-      <c r="E36" s="0"/>
-      <c r="F36" s="0"/>
-      <c r="G36" s="0"/>
-      <c r="H36" s="0"/>
-      <c r="I36" s="0"/>
-      <c r="XFD36" s="0"/>
-    </row>
-    <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0"/>
-      <c r="B37" s="0"/>
-      <c r="C37" s="0"/>
-      <c r="D37" s="0"/>
-      <c r="E37" s="0"/>
-      <c r="F37" s="0"/>
-      <c r="G37" s="0"/>
-      <c r="H37" s="0"/>
-      <c r="I37" s="0"/>
-      <c r="XFD37" s="0"/>
-    </row>
-    <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0"/>
-      <c r="B38" s="0"/>
-      <c r="C38" s="0"/>
-      <c r="D38" s="0"/>
-      <c r="E38" s="0"/>
-      <c r="F38" s="0"/>
-      <c r="G38" s="0"/>
-      <c r="H38" s="0"/>
-      <c r="I38" s="0"/>
-      <c r="XFD38" s="0"/>
-    </row>
-    <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0"/>
-      <c r="B39" s="0"/>
-      <c r="C39" s="0"/>
-      <c r="D39" s="0"/>
-      <c r="E39" s="0"/>
-      <c r="F39" s="0"/>
-      <c r="G39" s="0"/>
-      <c r="H39" s="0"/>
-      <c r="I39" s="0"/>
-      <c r="XFD39" s="0"/>
-    </row>
-    <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0"/>
-      <c r="B40" s="0"/>
-      <c r="C40" s="0"/>
-      <c r="D40" s="0"/>
-      <c r="E40" s="0"/>
-      <c r="F40" s="0"/>
-      <c r="G40" s="0"/>
-      <c r="H40" s="0"/>
-      <c r="I40" s="0"/>
-      <c r="XFD40" s="0"/>
-    </row>
-    <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0"/>
-      <c r="B41" s="0"/>
-      <c r="C41" s="0"/>
-      <c r="D41" s="0"/>
-      <c r="E41" s="0"/>
-      <c r="F41" s="0"/>
-      <c r="G41" s="0"/>
-      <c r="H41" s="0"/>
-      <c r="I41" s="0"/>
-      <c r="XFD41" s="0"/>
-    </row>
-    <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0"/>
-      <c r="B42" s="0"/>
-      <c r="C42" s="0"/>
-      <c r="D42" s="0"/>
-      <c r="E42" s="0"/>
-      <c r="F42" s="0"/>
-      <c r="G42" s="0"/>
-      <c r="H42" s="0"/>
-      <c r="I42" s="0"/>
-      <c r="XFD42" s="0"/>
-    </row>
-    <row r="43" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="0"/>
-      <c r="B43" s="0"/>
-      <c r="C43" s="0"/>
-      <c r="D43" s="0"/>
-      <c r="E43" s="0"/>
-      <c r="F43" s="0"/>
-      <c r="G43" s="0"/>
-      <c r="H43" s="0"/>
-      <c r="I43" s="0"/>
-      <c r="XFD43" s="0"/>
-    </row>
-    <row r="44" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="0"/>
-      <c r="B44" s="0"/>
-      <c r="C44" s="0"/>
-      <c r="D44" s="0"/>
-      <c r="E44" s="0"/>
-      <c r="F44" s="0"/>
-      <c r="G44" s="0"/>
-      <c r="H44" s="0"/>
-      <c r="I44" s="0"/>
-      <c r="XFD44" s="0"/>
-    </row>
-    <row r="45" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="0"/>
-      <c r="B45" s="0"/>
-      <c r="C45" s="0"/>
-      <c r="D45" s="0"/>
-      <c r="E45" s="0"/>
-      <c r="F45" s="0"/>
-      <c r="G45" s="0"/>
-      <c r="H45" s="0"/>
-      <c r="I45" s="0"/>
-      <c r="XFD45" s="0"/>
-    </row>
-    <row r="46" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>18</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C46" s="2"/>
       <c r="E46" s="2"/>
-    </row>
-    <row r="47" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="0"/>
-      <c r="B47" s="0"/>
-      <c r="C47" s="0"/>
-      <c r="D47" s="0"/>
-      <c r="E47" s="0"/>
-      <c r="F47" s="0"/>
-      <c r="G47" s="0"/>
-      <c r="H47" s="0"/>
-      <c r="I47" s="0"/>
-      <c r="XFD47" s="0"/>
-    </row>
-    <row r="48" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="0"/>
-      <c r="B48" s="0"/>
-      <c r="C48" s="0"/>
-      <c r="D48" s="0"/>
-      <c r="E48" s="0"/>
-      <c r="F48" s="0"/>
-      <c r="G48" s="0"/>
-      <c r="H48" s="0"/>
-      <c r="I48" s="0"/>
-      <c r="XFD48" s="0"/>
     </row>
     <row r="49" customFormat="false" ht="20.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="n">
@@ -1815,25 +1330,16 @@
         <v>1</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F49" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="G49" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H49" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" s="1" t="s">
-        <v>11</v>
+        <v>18</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1848,25 +1354,16 @@
         <v>1</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F51" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="G51" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H51" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" s="1" t="s">
-        <v>11</v>
+        <v>18</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1877,25 +1374,16 @@
         <v>2</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F52" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="G52" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H52" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" s="1" t="s">
-        <v>11</v>
+        <v>18</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1906,25 +1394,16 @@
         <v>1</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F53" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="G53" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H53" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" s="1" t="s">
-        <v>11</v>
+        <v>18</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1935,25 +1414,16 @@
         <v>2</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F54" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="G54" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H54" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" s="1" t="s">
-        <v>11</v>
+        <v>18</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1964,25 +1434,16 @@
         <v>3</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F55" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="G55" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H55" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" s="1" t="s">
-        <v>11</v>
+        <v>18</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1993,25 +1454,16 @@
         <v>4</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F56" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="G56" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H56" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" s="1" t="s">
-        <v>11</v>
+        <v>18</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2022,25 +1474,16 @@
         <v>5</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F57" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="G57" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H57" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" s="1" t="s">
-        <v>11</v>
+        <v>18</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2051,25 +1494,16 @@
         <v>1</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F59" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="G59" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H59" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2080,25 +1514,16 @@
         <v>2</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F60" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="G60" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H60" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2109,25 +1534,16 @@
         <v>3</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F61" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="G61" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H61" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" s="2" t="s">
-        <v>62</v>
+        <v>18</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2138,25 +1554,16 @@
         <v>4</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F62" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="G62" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H62" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" s="6" t="s">
-        <v>64</v>
+        <v>18</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2167,25 +1574,16 @@
         <v>5</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F63" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="G63" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H63" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" s="6" t="s">
-        <v>66</v>
+        <v>18</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="1048557" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
